--- a/data/trans_orig/Q45A_R-Clase-trans_orig.xlsx
+++ b/data/trans_orig/Q45A_R-Clase-trans_orig.xlsx
@@ -743,19 +743,19 @@
         <v>8183</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>3661</v>
+        <v>3716</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>15858</v>
+        <v>15731</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.01727255261879935</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.007726339042723566</v>
+        <v>0.007843409535540498</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.03347198539281608</v>
+        <v>0.03320366354066876</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>6</v>
@@ -764,19 +764,19 @@
         <v>5952</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>2010</v>
+        <v>1965</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>12127</v>
+        <v>11384</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.01940632277161511</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.006552816281508652</v>
+        <v>0.006407913199010689</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.03954430691060822</v>
+        <v>0.03712158751905376</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>14</v>
@@ -785,19 +785,19 @@
         <v>14135</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>7863</v>
+        <v>8144</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>24231</v>
+        <v>23510</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.01811101726175901</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.01007483103438481</v>
+        <v>0.01043456831355852</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.03104749573252009</v>
+        <v>0.03012306597842071</v>
       </c>
     </row>
     <row r="5">
@@ -814,19 +814,19 @@
         <v>47364</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>35158</v>
+        <v>34652</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>62766</v>
+        <v>62171</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.0999722596997631</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.07420792545068634</v>
+        <v>0.073140775997923</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1324801868400783</v>
+        <v>0.131223545587226</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>30</v>
@@ -835,19 +835,19 @@
         <v>31074</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>21787</v>
+        <v>21414</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>43525</v>
+        <v>42158</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1013248204960502</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.07104282458210739</v>
+        <v>0.06982663741610609</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1419239030683304</v>
+        <v>0.1374661717976963</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>74</v>
@@ -856,19 +856,19 @@
         <v>78439</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>62802</v>
+        <v>62233</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>97913</v>
+        <v>97060</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1005037482500381</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.08046769552462284</v>
+        <v>0.07973886007714349</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1254554816223785</v>
+        <v>0.124363202712466</v>
       </c>
     </row>
     <row r="6">
@@ -885,19 +885,19 @@
         <v>212603</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>189630</v>
+        <v>190500</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>233430</v>
+        <v>233801</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.4487416889467269</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.4002530204861839</v>
+        <v>0.4020886606658426</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.4927002858784671</v>
+        <v>0.4934852563286114</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>156</v>
@@ -906,19 +906,19 @@
         <v>159441</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>140219</v>
+        <v>142181</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>176892</v>
+        <v>176104</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.5198948591680232</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.4572152305274468</v>
+        <v>0.4636120847483196</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.5767979435756454</v>
+        <v>0.5742256010590507</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>364</v>
@@ -927,19 +927,19 @@
         <v>372045</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>344816</v>
+        <v>345818</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>399694</v>
+        <v>398679</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.4767013158945121</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.4418124819777943</v>
+        <v>0.4430973762661487</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.5121284458714953</v>
+        <v>0.510828091056078</v>
       </c>
     </row>
     <row r="7">
@@ -956,19 +956,19 @@
         <v>117349</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>97683</v>
+        <v>98915</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>136010</v>
+        <v>136796</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.247689435376251</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2061790045346338</v>
+        <v>0.2087810924502923</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2870764962310507</v>
+        <v>0.2887353455036989</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>61</v>
@@ -977,19 +977,19 @@
         <v>62626</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>49510</v>
+        <v>49539</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>78239</v>
+        <v>77879</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2042053775018954</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1614390462446543</v>
+        <v>0.1615347298913599</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2551152360739007</v>
+        <v>0.2539412431121547</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>176</v>
@@ -998,19 +998,19 @@
         <v>179975</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>157481</v>
+        <v>159317</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>203513</v>
+        <v>204634</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2306023817346271</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2017810954858547</v>
+        <v>0.2041325966466208</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.260760967411611</v>
+        <v>0.2621978528167675</v>
       </c>
     </row>
     <row r="8">
@@ -1027,19 +1027,19 @@
         <v>88276</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>72224</v>
+        <v>72603</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>108233</v>
+        <v>107827</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.1863240633584596</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.1524437894238859</v>
+        <v>0.1532435667456649</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.2284474952055319</v>
+        <v>0.2275901273460464</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>45</v>
@@ -1048,19 +1048,19 @@
         <v>47587</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>37123</v>
+        <v>35817</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>62745</v>
+        <v>60301</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.1551686200624161</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.1210474594149716</v>
+        <v>0.1167883749499357</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.2045936232541568</v>
+        <v>0.196624626563329</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>125</v>
@@ -1069,19 +1069,19 @@
         <v>135863</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>115385</v>
+        <v>117158</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>159629</v>
+        <v>160443</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.1740815368590637</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.1478434378098117</v>
+        <v>0.1501150333086996</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.2045331345641809</v>
+        <v>0.205575825827629</v>
       </c>
     </row>
     <row r="9">
@@ -1173,19 +1173,19 @@
         <v>3255</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>9524</v>
+        <v>10005</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.008871970120732077</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.002434199156825196</v>
+        <v>0.002431517707776615</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.02595563375980584</v>
+        <v>0.02726555985000728</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>7</v>
@@ -1194,19 +1194,19 @@
         <v>7104</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>3097</v>
+        <v>2872</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>14029</v>
+        <v>14024</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.01910265611732902</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.008329151692463097</v>
+        <v>0.007722476227539214</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.03772505391567475</v>
+        <v>0.03771377324437568</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>10</v>
@@ -1215,19 +1215,19 @@
         <v>10359</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>4907</v>
+        <v>4999</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>17921</v>
+        <v>18610</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.01402145278736103</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.006642106942359637</v>
+        <v>0.006766966999726905</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.02425638906498876</v>
+        <v>0.02518886232924942</v>
       </c>
     </row>
     <row r="11">
@@ -1244,19 +1244,19 @@
         <v>28286</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>19908</v>
+        <v>19279</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>39871</v>
+        <v>40685</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.0770876176994833</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.05425490307799639</v>
+        <v>0.05253992525070825</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.1086609323006905</v>
+        <v>0.1108788898736136</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>46</v>
@@ -1265,19 +1265,19 @@
         <v>45627</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>33993</v>
+        <v>34599</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>59524</v>
+        <v>59937</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.1226983862062216</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.09141295700317713</v>
+        <v>0.09304175819589222</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.1600681125573459</v>
+        <v>0.1611784939039679</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>75</v>
@@ -1286,19 +1286,19 @@
         <v>73913</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>57978</v>
+        <v>59041</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>90230</v>
+        <v>94412</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.1000452045040436</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.07847554897567273</v>
+        <v>0.07991483864372216</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.1221302206349879</v>
+        <v>0.1277907136411496</v>
       </c>
     </row>
     <row r="12">
@@ -1315,19 +1315,19 @@
         <v>193220</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>171054</v>
+        <v>173322</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>212331</v>
+        <v>213239</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.5265805811317383</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.4661719624036688</v>
+        <v>0.4723507128584938</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.5786625156496158</v>
+        <v>0.5811385510726311</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>193</v>
@@ -1336,19 +1336,19 @@
         <v>198976</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>179461</v>
+        <v>178846</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>216760</v>
+        <v>218052</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.5350756274235352</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.4825966680578094</v>
+        <v>0.4809428106103022</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.5829003096962423</v>
+        <v>0.5863741271639676</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>379</v>
@@ -1357,19 +1357,19 @@
         <v>392196</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>365469</v>
+        <v>363247</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>419022</v>
+        <v>420683</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.5308564521384694</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.4946800041522098</v>
+        <v>0.4916729329205275</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.5671665790729737</v>
+        <v>0.5694144614435949</v>
       </c>
     </row>
     <row r="13">
@@ -1386,19 +1386,19 @@
         <v>85738</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>70682</v>
+        <v>70432</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>103430</v>
+        <v>104428</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2336612080668558</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.192627582965292</v>
+        <v>0.1919486121744739</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2818749544436761</v>
+        <v>0.2845974492359104</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>64</v>
@@ -1407,19 +1407,19 @@
         <v>62536</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>48913</v>
+        <v>50163</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>78092</v>
+        <v>78762</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1681692469925125</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1315346232797735</v>
+        <v>0.1348969363512839</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2100004421434656</v>
+        <v>0.2118039398371964</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>145</v>
@@ -1428,19 +1428,19 @@
         <v>148275</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>127097</v>
+        <v>126667</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>171266</v>
+        <v>170569</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2006966816931553</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1720321270116489</v>
+        <v>0.1714499389159356</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2318169737660303</v>
+        <v>0.2308732322810003</v>
       </c>
     </row>
     <row r="14">
@@ -1457,19 +1457,19 @@
         <v>56434</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>43506</v>
+        <v>42969</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>73081</v>
+        <v>73312</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.1537986229811905</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1185656689587139</v>
+        <v>0.1171035178717874</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1991665570405059</v>
+        <v>0.1997972277251182</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>53</v>
@@ -1478,19 +1478,19 @@
         <v>57622</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>43925</v>
+        <v>44394</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>73517</v>
+        <v>73874</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.1549540832604017</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.1181208105617798</v>
+        <v>0.1193820976057772</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.1976993824702349</v>
+        <v>0.1986580289395354</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>104</v>
@@ -1499,19 +1499,19 @@
         <v>114056</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>95710</v>
+        <v>95050</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>135951</v>
+        <v>137129</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.1543802088769706</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.1295477911478413</v>
+        <v>0.1286546667179198</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.1840157280081687</v>
+        <v>0.185610254948582</v>
       </c>
     </row>
     <row r="15">
@@ -1603,19 +1603,19 @@
         <v>15495</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>8395</v>
+        <v>8539</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>25454</v>
+        <v>25662</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.02856790898926341</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.01547840729559476</v>
+        <v>0.01574346724178635</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.04692964823052411</v>
+        <v>0.04731276785924649</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>0</v>
@@ -1637,19 +1637,19 @@
         <v>15495</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>8763</v>
+        <v>8874</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>25443</v>
+        <v>26007</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.02181857924531788</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.01233923266871094</v>
+        <v>0.01249561160882385</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.03582676221632419</v>
+        <v>0.0366204356689756</v>
       </c>
     </row>
     <row r="17">
@@ -1666,19 +1666,19 @@
         <v>39174</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>28131</v>
+        <v>27672</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>53631</v>
+        <v>52519</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.07222458716504868</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.05186463486373146</v>
+        <v>0.05101884791407769</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.09887838513510545</v>
+        <v>0.09682966851128649</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>8</v>
@@ -1687,19 +1687,19 @@
         <v>7967</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>4022</v>
+        <v>3874</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>15333</v>
+        <v>14965</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.04748170543697159</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.02396949741599786</v>
+        <v>0.02308829965146234</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.09138605093799321</v>
+        <v>0.08919553076891797</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>46</v>
@@ -1708,19 +1708,19 @@
         <v>47140</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>34560</v>
+        <v>35355</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>61855</v>
+        <v>61236</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.06637894170107722</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.04866396572665099</v>
+        <v>0.04978336200712281</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.08709935160300772</v>
+        <v>0.08622703687269223</v>
       </c>
     </row>
     <row r="18">
@@ -1737,19 +1737,19 @@
         <v>244042</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>221925</v>
+        <v>220628</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>267388</v>
+        <v>268762</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.4499395860917708</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.4091620596173962</v>
+        <v>0.4067714312047891</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.4929822077584279</v>
+        <v>0.4955157457359362</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>82</v>
@@ -1758,19 +1758,19 @@
         <v>83033</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>68434</v>
+        <v>69562</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>95576</v>
+        <v>95327</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.4948886639554056</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.4078742552241899</v>
+        <v>0.4145965171637498</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.5696423544232061</v>
+        <v>0.5681613818569055</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>325</v>
@@ -1779,19 +1779,19 @@
         <v>327076</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>300923</v>
+        <v>302645</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>354083</v>
+        <v>353637</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.4605590594421645</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.4237331768793721</v>
+        <v>0.4261581300507465</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.4985878903816611</v>
+        <v>0.4979598809403563</v>
       </c>
     </row>
     <row r="19">
@@ -1808,19 +1808,19 @@
         <v>141383</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>122970</v>
+        <v>123021</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>162059</v>
+        <v>163252</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.2606678836132153</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.2267191935777424</v>
+        <v>0.2268137670486502</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2987876678061738</v>
+        <v>0.3009864595853993</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>36</v>
@@ -1829,19 +1829,19 @@
         <v>36230</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>27322</v>
+        <v>26829</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>48251</v>
+        <v>48155</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.2159326960112561</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1628409000801892</v>
+        <v>0.1599047932824061</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2875816870357221</v>
+        <v>0.2870109504465626</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>177</v>
@@ -1850,19 +1850,19 @@
         <v>177613</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>154046</v>
+        <v>157586</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>203045</v>
+        <v>202332</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.2500989430443987</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.2169139605876815</v>
+        <v>0.2218979731517259</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2859096639825002</v>
+        <v>0.2849062142001469</v>
       </c>
     </row>
     <row r="20">
@@ -1879,19 +1879,19 @@
         <v>102295</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>85338</v>
+        <v>85017</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>122894</v>
+        <v>122869</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.1886000341407019</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.1573381809061441</v>
+        <v>0.1567451059867506</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.2265782635279467</v>
+        <v>0.2265323863884847</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>38</v>
@@ -1900,19 +1900,19 @@
         <v>40552</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>30453</v>
+        <v>29688</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>52934</v>
+        <v>52660</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.2416969345963666</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.1815019127492347</v>
+        <v>0.1769413033473792</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.3154925912051536</v>
+        <v>0.3138585243755505</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>134</v>
@@ -1921,19 +1921,19 @@
         <v>142847</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>122355</v>
+        <v>121308</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>166337</v>
+        <v>165290</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.2011444765670418</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.172289252696218</v>
+        <v>0.1708150795020701</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.2342208749665372</v>
+        <v>0.2327460688135885</v>
       </c>
     </row>
     <row r="21">
@@ -2025,19 +2025,19 @@
         <v>29480</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>19721</v>
+        <v>20228</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>42024</v>
+        <v>41915</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.02382338976039432</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.01593708160802277</v>
+        <v>0.01634629057314167</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.0339608246606385</v>
+        <v>0.0338726702897906</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>13</v>
@@ -2046,19 +2046,19 @@
         <v>13370</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>7308</v>
+        <v>7336</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>21087</v>
+        <v>22342</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.01871752367866907</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.01023129222918184</v>
+        <v>0.0102710616599333</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.02952171578946723</v>
+        <v>0.03127948081542132</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>41</v>
@@ -2067,19 +2067,19 @@
         <v>42850</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>31191</v>
+        <v>32245</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>57235</v>
+        <v>59028</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.02195476211870012</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.0159813911643821</v>
+        <v>0.01652119168091539</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.0293253655267377</v>
+        <v>0.03024396735661874</v>
       </c>
     </row>
     <row r="23">
@@ -2096,19 +2096,19 @@
         <v>128157</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>107534</v>
+        <v>108456</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>150206</v>
+        <v>151985</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.1035666843302915</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.08690061378064243</v>
+        <v>0.08764532643157041</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.1213842776957058</v>
+        <v>0.1228225260955419</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>58</v>
@@ -2117,19 +2117,19 @@
         <v>59898</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>45844</v>
+        <v>47640</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>77153</v>
+        <v>78154</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.08385773370752707</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.06418117709474246</v>
+        <v>0.06669577505093419</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.1080140546075965</v>
+        <v>0.1094163795562576</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>182</v>
@@ -2138,19 +2138,19 @@
         <v>188056</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>162432</v>
+        <v>163459</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>215107</v>
+        <v>217358</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.09635366907822686</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.08322495647972904</v>
+        <v>0.083751227084204</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.1102136206543301</v>
+        <v>0.1113671229280914</v>
       </c>
     </row>
     <row r="24">
@@ -2167,19 +2167,19 @@
         <v>560139</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>528001</v>
+        <v>525225</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>598760</v>
+        <v>593926</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.4526602922721122</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.4266885866426572</v>
+        <v>0.4244453442816987</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.4838706511833709</v>
+        <v>0.4799639108103669</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>316</v>
@@ -2188,19 +2188,19 @@
         <v>320669</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>294330</v>
+        <v>295064</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>349281</v>
+        <v>347131</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.4489375152179352</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.4120619413752404</v>
+        <v>0.413090344033878</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.4889942943624264</v>
+        <v>0.4859840848353326</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>864</v>
@@ -2209,19 +2209,19 @@
         <v>880809</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>836743</v>
+        <v>836974</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>925968</v>
+        <v>922166</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.4512978428862581</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.4287201096019729</v>
+        <v>0.428838249462325</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.4744361270104779</v>
+        <v>0.4724878628350153</v>
       </c>
     </row>
     <row r="25">
@@ -2238,19 +2238,19 @@
         <v>271955</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>244990</v>
+        <v>244651</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>301414</v>
+        <v>303212</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.2197723419339669</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1979810993591788</v>
+        <v>0.197707390289577</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2435792507182183</v>
+        <v>0.2450321674720999</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>181</v>
@@ -2259,19 +2259,19 @@
         <v>186915</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>162223</v>
+        <v>163825</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>211824</v>
+        <v>211032</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.2616807885948891</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.2271124892100508</v>
+        <v>0.2293549394349245</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2965540061588486</v>
+        <v>0.2954451328827404</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>459</v>
@@ -2280,19 +2280,19 @@
         <v>458870</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>423859</v>
+        <v>423162</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>500854</v>
+        <v>495036</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.2351098538462663</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.217171670676374</v>
+        <v>0.2168143335213111</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2566213465174561</v>
+        <v>0.2536403208096986</v>
       </c>
     </row>
     <row r="26">
@@ -2309,19 +2309,19 @@
         <v>247707</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>216341</v>
+        <v>220579</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>276319</v>
+        <v>278251</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.2001772917032351</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.174829949923266</v>
+        <v>0.1782542536114271</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.2232990404883169</v>
+        <v>0.2248602622256529</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>126</v>
@@ -2330,19 +2330,19 @@
         <v>133433</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>113422</v>
+        <v>111295</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>153866</v>
+        <v>154637</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.1868064388009796</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.1587905845934775</v>
+        <v>0.1558126061615941</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.2154125334845336</v>
+        <v>0.2164917821719256</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>371</v>
@@ -2351,19 +2351,19 @@
         <v>381140</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>348682</v>
+        <v>344375</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>417391</v>
+        <v>415588</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.1952838720705487</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.1786532406404519</v>
+        <v>0.1764464040632756</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.2138574602978241</v>
+        <v>0.2129337356144954</v>
       </c>
     </row>
     <row r="27">
@@ -2455,19 +2455,19 @@
         <v>6832</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>2817</v>
+        <v>2921</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>12820</v>
+        <v>13132</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.01948829929484869</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.008035745867345736</v>
+        <v>0.008333182718841434</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.03657130921508726</v>
+        <v>0.03745923491504091</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>13</v>
@@ -2476,19 +2476,19 @@
         <v>14550</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>7993</v>
+        <v>7987</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>24102</v>
+        <v>25232</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.02558231006109144</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.01405421786029003</v>
+        <v>0.01404327124080625</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.04237721464785162</v>
+        <v>0.04436307876817198</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>20</v>
@@ -2497,19 +2497,19 @@
         <v>21382</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>13232</v>
+        <v>14052</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>31815</v>
+        <v>33123</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.02325850818565464</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.01439324809168661</v>
+        <v>0.01528500549359141</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.03460707630118511</v>
+        <v>0.0360308931255349</v>
       </c>
     </row>
     <row r="29">
@@ -2526,19 +2526,19 @@
         <v>58466</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>45465</v>
+        <v>44856</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>74018</v>
+        <v>74113</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.1667807689985897</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.1296952467706588</v>
+        <v>0.1279565088543072</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.2111463075704388</v>
+        <v>0.2114156349874916</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>31</v>
@@ -2547,19 +2547,19 @@
         <v>32018</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>23161</v>
+        <v>22514</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>45068</v>
+        <v>45939</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.05629577158553523</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.04072198005205618</v>
+        <v>0.03958568415365173</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.07924008048047269</v>
+        <v>0.08077198893527374</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>85</v>
@@ -2568,19 +2568,19 @@
         <v>90484</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>73160</v>
+        <v>73357</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>110121</v>
+        <v>112106</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.09842652160296285</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.07958195383539672</v>
+        <v>0.07979543961507685</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.1197871552374931</v>
+        <v>0.1219462790245252</v>
       </c>
     </row>
     <row r="30">
@@ -2597,19 +2597,19 @@
         <v>164304</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>145350</v>
+        <v>147846</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>183919</v>
+        <v>185302</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.4686954756393004</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.4146280578800077</v>
+        <v>0.4217491896486819</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.5246498817041653</v>
+        <v>0.5285971341764292</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>243</v>
@@ -2618,19 +2618,19 @@
         <v>257674</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>235206</v>
+        <v>232601</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>282585</v>
+        <v>280611</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.4530517339908641</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.4135467642762197</v>
+        <v>0.408966827102842</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.496850588568328</v>
+        <v>0.4933807442305975</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>401</v>
@@ -2639,19 +2639,19 @@
         <v>421978</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>393399</v>
+        <v>390900</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>454559</v>
+        <v>450528</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.4590170920409121</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.4279296373455825</v>
+        <v>0.4252117483370919</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.4944579252976163</v>
+        <v>0.4900730246165599</v>
       </c>
     </row>
     <row r="31">
@@ -2668,19 +2668,19 @@
         <v>45077</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>33881</v>
+        <v>34681</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>58564</v>
+        <v>59194</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.1285874131934135</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.09665009264988889</v>
+        <v>0.09893177969738678</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.1670598190457237</v>
+        <v>0.168857624168608</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>134</v>
@@ -2689,19 +2689,19 @@
         <v>139762</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>120907</v>
+        <v>119891</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>162247</v>
+        <v>161924</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.2457340127698511</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.2125826731414639</v>
+        <v>0.210796427832328</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.2852690550813597</v>
+        <v>0.2847003666337945</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>180</v>
@@ -2710,19 +2710,19 @@
         <v>184839</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>163521</v>
+        <v>160793</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>210278</v>
+        <v>208588</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.2010630237875639</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.1778738522898496</v>
+        <v>0.1749064254568256</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.2287350507013894</v>
+        <v>0.226897073542025</v>
       </c>
     </row>
     <row r="32">
@@ -2739,19 +2739,19 @@
         <v>75877</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>59964</v>
+        <v>60020</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>90688</v>
+        <v>90949</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.2164480428738477</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.1710556963906904</v>
+        <v>0.1712148397523093</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.2586978955246555</v>
+        <v>0.2594427183666814</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>118</v>
@@ -2760,19 +2760,19 @@
         <v>124748</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>104325</v>
+        <v>103728</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>144864</v>
+        <v>145313</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.2193361715926581</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.183427591393873</v>
+        <v>0.1823784888920051</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.2547057874348831</v>
+        <v>0.2554946562874842</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>193</v>
@@ -2781,19 +2781,19 @@
         <v>200625</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>176515</v>
+        <v>175367</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>226876</v>
+        <v>226545</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.2182348543829065</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.192008722978519</v>
+        <v>0.1907595281416868</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.2467907319440431</v>
+        <v>0.2464299245504114</v>
       </c>
     </row>
     <row r="33">
@@ -2885,19 +2885,19 @@
         <v>5007</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>1793</v>
+        <v>1792</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>11347</v>
+        <v>12375</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.01679016122148824</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.006013769372349709</v>
+        <v>0.006009701883382935</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.03805210549423593</v>
+        <v>0.04149733203853059</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>15</v>
@@ -2906,19 +2906,19 @@
         <v>14680</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>8806</v>
+        <v>8033</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>24560</v>
+        <v>23680</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.01175551514714549</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.007052116067475923</v>
+        <v>0.006432574851811798</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.01966732703939346</v>
+        <v>0.01896303774981264</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>20</v>
@@ -2927,19 +2927,19 @@
         <v>19687</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>12215</v>
+        <v>12410</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>30270</v>
+        <v>29768</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.01272602107938177</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.0078962578889203</v>
+        <v>0.008022113771749112</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.01956745328583456</v>
+        <v>0.01924319926570967</v>
       </c>
     </row>
     <row r="35">
@@ -2956,19 +2956,19 @@
         <v>40659</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>29490</v>
+        <v>30830</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>52820</v>
+        <v>53478</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.1363474039667132</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.09889173773476807</v>
+        <v>0.1033870741423619</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.177129380557875</v>
+        <v>0.1793356182180608</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>94</v>
@@ -2977,19 +2977,19 @@
         <v>91762</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>74783</v>
+        <v>75968</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>109725</v>
+        <v>112677</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.07348279925384002</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.05988613626081768</v>
+        <v>0.06083478365655323</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.08786751784092277</v>
+        <v>0.09023106551966791</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>137</v>
@@ -2998,19 +2998,19 @@
         <v>132421</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>111768</v>
+        <v>113019</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>155152</v>
+        <v>155794</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.08560092452037066</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.07225009430342817</v>
+        <v>0.0730586047281386</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.1002944684850218</v>
+        <v>0.1007095928071884</v>
       </c>
     </row>
     <row r="36">
@@ -3027,19 +3027,19 @@
         <v>187054</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>171131</v>
+        <v>170371</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>202481</v>
+        <v>204330</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.6272762030400959</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.5738784961548955</v>
+        <v>0.5713302723389989</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.679007822249889</v>
+        <v>0.6852099685751282</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>614</v>
@@ -3048,19 +3048,19 @@
         <v>612433</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>578811</v>
+        <v>575553</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>650115</v>
+        <v>647906</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.49043327706613</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.4635083158776715</v>
+        <v>0.4608993722477933</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.5206083170190897</v>
+        <v>0.5188394110181886</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>805</v>
@@ -3069,19 +3069,19 @@
         <v>799487</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>755996</v>
+        <v>757975</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>835106</v>
+        <v>835299</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.5168118684271208</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.4886979494027345</v>
+        <v>0.4899773693034702</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.5398366217745022</v>
+        <v>0.5399615235162112</v>
       </c>
     </row>
     <row r="37">
@@ -3098,19 +3098,19 @@
         <v>39972</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>30206</v>
+        <v>29772</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>52620</v>
+        <v>53140</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.1340454293803419</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.1012953318884573</v>
+        <v>0.09983882197409051</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.1764596591679032</v>
+        <v>0.1782013229606467</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>231</v>
@@ -3119,19 +3119,19 @@
         <v>235047</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>205560</v>
+        <v>208570</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>261786</v>
+        <v>263422</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.1882240054214575</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.164611122195015</v>
+        <v>0.1670218606802699</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.2096365927351042</v>
+        <v>0.2109467574382341</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>272</v>
@@ -3140,19 +3140,19 @@
         <v>275019</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>247943</v>
+        <v>246614</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>303912</v>
+        <v>307590</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.1777802465808957</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.1602778982270954</v>
+        <v>0.1594185037152925</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.1964576783257738</v>
+        <v>0.1988351525896444</v>
       </c>
     </row>
     <row r="38">
@@ -3169,19 +3169,19 @@
         <v>25508</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>16956</v>
+        <v>16752</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>35220</v>
+        <v>36364</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.08554080239136076</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.05686100285767925</v>
+        <v>0.05617645253405087</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.1181094938492521</v>
+        <v>0.1219452812137148</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>284</v>
@@ -3190,19 +3190,19 @@
         <v>294838</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>265099</v>
+        <v>267615</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>324059</v>
+        <v>327652</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.236104403111427</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.2122894267081957</v>
+        <v>0.2143049050216649</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.2595045422786231</v>
+        <v>0.2623820292670928</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>310</v>
@@ -3211,19 +3211,19 @@
         <v>320346</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>289685</v>
+        <v>290680</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>354589</v>
+        <v>353529</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.2070809393922311</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.1872606214968691</v>
+        <v>0.1879037312488374</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.2292165770626895</v>
+        <v>0.2285311637746409</v>
       </c>
     </row>
     <row r="39">
@@ -3315,19 +3315,19 @@
         <v>68252</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>51996</v>
+        <v>51384</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>86090</v>
+        <v>86495</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.02087674684390576</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.01590441667136619</v>
+        <v>0.01571703208876229</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.02633284497780738</v>
+        <v>0.02645666164726001</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>54</v>
@@ -3336,19 +3336,19 @@
         <v>55655</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>42425</v>
+        <v>41759</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>71764</v>
+        <v>70748</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0.01647500034365914</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.01255878440932146</v>
+        <v>0.01236159697023953</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.02124365114965522</v>
+        <v>0.0209429607610647</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>119</v>
@@ -3357,19 +3357,19 @@
         <v>123907</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>103651</v>
+        <v>103946</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>149243</v>
+        <v>148282</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.0186398414546083</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.0155927016358888</v>
+        <v>0.01563709335731109</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.02245124506573913</v>
+        <v>0.02230673628769437</v>
       </c>
     </row>
     <row r="41">
@@ -3386,19 +3386,19 @@
         <v>342107</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>310536</v>
+        <v>307292</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>384470</v>
+        <v>376593</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.1046423317561497</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.09498560046007297</v>
+        <v>0.09399336984695555</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.1176002221466934</v>
+        <v>0.1151909042295104</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>267</v>
@@ -3407,19 +3407,19 @@
         <v>268347</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>238639</v>
+        <v>237618</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>301780</v>
+        <v>300852</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.0794367384649107</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.07064240094165657</v>
+        <v>0.07034027150426339</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.08933356263712251</v>
+        <v>0.08905897636347999</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>599</v>
@@ -3428,19 +3428,19 @@
         <v>610454</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>564023</v>
+        <v>559348</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>659781</v>
+        <v>656084</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.09183320531725701</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.08484836379618951</v>
+        <v>0.08414519402653586</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.09925375363948898</v>
+        <v>0.09869751908465142</v>
       </c>
     </row>
     <row r="42">
@@ -3457,19 +3457,19 @@
         <v>1561363</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>1502163</v>
+        <v>1501039</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>1618220</v>
+        <v>1617389</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.4775841516556391</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.4594761250747075</v>
+        <v>0.4591325702112994</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.4949754018265593</v>
+        <v>0.4947213025180298</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>1604</v>
@@ -3478,19 +3478,19 @@
         <v>1632228</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>1574600</v>
+        <v>1572662</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>1692395</v>
+        <v>1687785</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.4831757317962529</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.4661167861790161</v>
+        <v>0.4655428715036316</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.5009866807221832</v>
+        <v>0.4996218895390968</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>3138</v>
@@ -3499,19 +3499,19 @@
         <v>3193591</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>3115143</v>
+        <v>3112560</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>3272331</v>
+        <v>3275960</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.4804257136925548</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.4686244399878799</v>
+        <v>0.4682358938701287</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.4922709220513612</v>
+        <v>0.492816899356584</v>
       </c>
     </row>
     <row r="43">
@@ -3528,19 +3528,19 @@
         <v>701475</v>
       </c>
       <c r="E43" s="5" t="n">
-        <v>654144</v>
+        <v>653055</v>
       </c>
       <c r="F43" s="5" t="n">
-        <v>748016</v>
+        <v>746372</v>
       </c>
       <c r="G43" s="6" t="n">
         <v>0.2145647660570277</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>0.2000873204046801</v>
+        <v>0.1997540622962231</v>
       </c>
       <c r="I43" s="6" t="n">
-        <v>0.228800350871246</v>
+        <v>0.2282975319276912</v>
       </c>
       <c r="J43" s="5" t="n">
         <v>707</v>
@@ -3549,19 +3549,19 @@
         <v>723115</v>
       </c>
       <c r="L43" s="5" t="n">
-        <v>678058</v>
+        <v>678558</v>
       </c>
       <c r="M43" s="5" t="n">
-        <v>772063</v>
+        <v>771859</v>
       </c>
       <c r="N43" s="6" t="n">
         <v>0.2140580335046968</v>
       </c>
       <c r="O43" s="6" t="n">
-        <v>0.2007202173311568</v>
+        <v>0.200868313773902</v>
       </c>
       <c r="P43" s="6" t="n">
-        <v>0.2285478310434494</v>
+        <v>0.2284873265816697</v>
       </c>
       <c r="Q43" s="5" t="n">
         <v>1409</v>
@@ -3570,19 +3570,19 @@
         <v>1424590</v>
       </c>
       <c r="S43" s="5" t="n">
-        <v>1359414</v>
+        <v>1360210</v>
       </c>
       <c r="T43" s="5" t="n">
-        <v>1485211</v>
+        <v>1492625</v>
       </c>
       <c r="U43" s="6" t="n">
         <v>0.214307251732389</v>
       </c>
       <c r="V43" s="6" t="n">
-        <v>0.2045025654036042</v>
+        <v>0.2046223089560243</v>
       </c>
       <c r="W43" s="6" t="n">
-        <v>0.2234267175906772</v>
+        <v>0.2245420287682671</v>
       </c>
     </row>
     <row r="44">
@@ -3599,19 +3599,19 @@
         <v>596097</v>
       </c>
       <c r="E44" s="5" t="n">
-        <v>551272</v>
+        <v>553655</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>639864</v>
+        <v>642834</v>
       </c>
       <c r="G44" s="6" t="n">
         <v>0.1823320036872778</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.1686212041602221</v>
+        <v>0.1693501014602507</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.1957192435345247</v>
+        <v>0.1966278424737097</v>
       </c>
       <c r="J44" s="5" t="n">
         <v>664</v>
@@ -3620,19 +3620,19 @@
         <v>698780</v>
       </c>
       <c r="L44" s="5" t="n">
-        <v>651196</v>
+        <v>655427</v>
       </c>
       <c r="M44" s="5" t="n">
-        <v>745350</v>
+        <v>752393</v>
       </c>
       <c r="N44" s="6" t="n">
         <v>0.2068544958904805</v>
       </c>
       <c r="O44" s="6" t="n">
-        <v>0.1927683950420258</v>
+        <v>0.1940211266987814</v>
       </c>
       <c r="P44" s="6" t="n">
-        <v>0.2206403327707682</v>
+        <v>0.2227251718311845</v>
       </c>
       <c r="Q44" s="5" t="n">
         <v>1237</v>
@@ -3641,19 +3641,19 @@
         <v>1294877</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>1231650</v>
+        <v>1227050</v>
       </c>
       <c r="T44" s="5" t="n">
-        <v>1363211</v>
+        <v>1362529</v>
       </c>
       <c r="U44" s="6" t="n">
         <v>0.1947939878031908</v>
       </c>
       <c r="V44" s="6" t="n">
-        <v>0.1852824371402041</v>
+        <v>0.1845905120904079</v>
       </c>
       <c r="W44" s="6" t="n">
-        <v>0.2050737965376698</v>
+        <v>0.2049712097550595</v>
       </c>
     </row>
     <row r="45">
@@ -3990,7 +3990,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>12239</v>
+        <v>10456</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.006479340197047458</v>
@@ -3999,7 +3999,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.02799367004765648</v>
+        <v>0.02391634360673586</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>3</v>
@@ -4008,19 +4008,19 @@
         <v>3198</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>972</v>
+        <v>987</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>8412</v>
+        <v>8489</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.01020250602359284</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.003100573368569326</v>
+        <v>0.003147606279502289</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.02683542971762018</v>
+        <v>0.02707947311253324</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>5</v>
@@ -4029,19 +4029,19 @@
         <v>6031</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>1980</v>
+        <v>1994</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>14278</v>
+        <v>14363</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.008034058457875687</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.002637385066558862</v>
+        <v>0.002656199704126544</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.0190198950725624</v>
+        <v>0.01913305765231446</v>
       </c>
     </row>
     <row r="5">
@@ -4058,19 +4058,19 @@
         <v>43081</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>31427</v>
+        <v>31786</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>57912</v>
+        <v>58036</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.09853558285473041</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.07188063979993448</v>
+        <v>0.07270087640392556</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1324574485167455</v>
+        <v>0.1327408764901008</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>27</v>
@@ -4079,19 +4079,19 @@
         <v>29325</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>20327</v>
+        <v>19369</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>43029</v>
+        <v>42125</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.09355059233033694</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.06484414741042627</v>
+        <v>0.06178844768977924</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1372667187976723</v>
+        <v>0.1343826558670623</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>68</v>
@@ -4100,19 +4100,19 @@
         <v>72406</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>57135</v>
+        <v>57146</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>91811</v>
+        <v>91486</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.09645395228563984</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.07611122859099732</v>
+        <v>0.07612620506976733</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1223039664477931</v>
+        <v>0.1218705804387539</v>
       </c>
     </row>
     <row r="6">
@@ -4129,19 +4129,19 @@
         <v>187048</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>165005</v>
+        <v>165470</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>207554</v>
+        <v>208275</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.4278202922324237</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.3774043437203618</v>
+        <v>0.3784662987044837</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.4747230930626733</v>
+        <v>0.4763708035084775</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>110</v>
@@ -4150,19 +4150,19 @@
         <v>122002</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>105356</v>
+        <v>104231</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>140856</v>
+        <v>140806</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.3892001084130948</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.3360972440444501</v>
+        <v>0.3325101236869734</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.4493479738037608</v>
+        <v>0.4491883262483346</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>288</v>
@@ -4171,19 +4171,19 @@
         <v>309050</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>280206</v>
+        <v>282389</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>337645</v>
+        <v>340187</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.4116932896175103</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.3732699778148331</v>
+        <v>0.3761777564358849</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.4497855607758028</v>
+        <v>0.4531729495150886</v>
       </c>
     </row>
     <row r="7">
@@ -4200,19 +4200,19 @@
         <v>96527</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>78676</v>
+        <v>79924</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>115347</v>
+        <v>116780</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2207783100314626</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1799491189235835</v>
+        <v>0.1828051325214617</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2638248369512686</v>
+        <v>0.267101828042886</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>66</v>
@@ -4221,19 +4221,19 @@
         <v>70779</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>56510</v>
+        <v>57431</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>86710</v>
+        <v>88265</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2257946610511415</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1802723295537915</v>
+        <v>0.1832111995681646</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2766156070769474</v>
+        <v>0.2815772115319508</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>154</v>
@@ -4242,19 +4242,19 @@
         <v>167306</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>143368</v>
+        <v>145823</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>191889</v>
+        <v>191109</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2228730361050137</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1909840922850417</v>
+        <v>0.1942551478710111</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2556206132386633</v>
+        <v>0.2545813769803333</v>
       </c>
     </row>
     <row r="8">
@@ -4271,19 +4271,19 @@
         <v>107723</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>90050</v>
+        <v>89199</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>127513</v>
+        <v>129921</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.2463864746843358</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.205965086460669</v>
+        <v>0.2040188248747736</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.2916512593997526</v>
+        <v>0.2971584954203346</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>76</v>
@@ -4292,19 +4292,19 @@
         <v>88164</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>72176</v>
+        <v>71868</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>105789</v>
+        <v>108979</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.281252132181834</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.2302489263990179</v>
+        <v>0.2292670120614586</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.3374789977808599</v>
+        <v>0.3476571379560093</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>171</v>
@@ -4313,19 +4313,19 @@
         <v>195886</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>170078</v>
+        <v>171164</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>223090</v>
+        <v>224957</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.2609456635339604</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.2265652526457667</v>
+        <v>0.2280124702969519</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.2971845189060422</v>
+        <v>0.2996719576337645</v>
       </c>
     </row>
     <row r="9">
@@ -4417,19 +4417,19 @@
         <v>5377</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>1880</v>
+        <v>1879</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>12603</v>
+        <v>12042</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.01283981541054241</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.004489391782271929</v>
+        <v>0.004487637833380001</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.03009448651288884</v>
+        <v>0.02875496111518575</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>10</v>
@@ -4438,19 +4438,19 @@
         <v>10344</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>5145</v>
+        <v>6033</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>18835</v>
+        <v>19730</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.03060125027713567</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.01522117674158843</v>
+        <v>0.01784827309986796</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.05572417935417524</v>
+        <v>0.05836949156207569</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>15</v>
@@ -4459,19 +4459,19 @@
         <v>15721</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>9372</v>
+        <v>8878</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>25777</v>
+        <v>24992</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.0207725561641688</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.0123838974303836</v>
+        <v>0.01173060982617019</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.03405988163796575</v>
+        <v>0.0330234984114904</v>
       </c>
     </row>
     <row r="11">
@@ -4488,19 +4488,19 @@
         <v>39875</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>29081</v>
+        <v>27660</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>53693</v>
+        <v>53657</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.09521205970280303</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.06943962505244827</v>
+        <v>0.06604674074884234</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.128208055244475</v>
+        <v>0.1281223351760286</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>30</v>
@@ -4509,19 +4509,19 @@
         <v>32994</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>23329</v>
+        <v>22929</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>45285</v>
+        <v>47909</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.09761343883535806</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.06901936770170822</v>
+        <v>0.06783587268282509</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.1339747528391575</v>
+        <v>0.1417380498330338</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>67</v>
@@ -4530,19 +4530,19 @@
         <v>72869</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>57597</v>
+        <v>57555</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>92364</v>
+        <v>91833</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.09628458105329125</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.07610473267211139</v>
+        <v>0.07604960130099633</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.1220440079687293</v>
+        <v>0.1213422060159665</v>
       </c>
     </row>
     <row r="12">
@@ -4559,19 +4559,19 @@
         <v>186061</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>165006</v>
+        <v>163219</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>208365</v>
+        <v>208656</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.4442741885976243</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.3940000776538802</v>
+        <v>0.389732888950542</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.4975316907921207</v>
+        <v>0.4982275066705854</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>128</v>
@@ -4580,19 +4580,19 @@
         <v>144567</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>123280</v>
+        <v>125258</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>164274</v>
+        <v>163496</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.4276977729122611</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.3647222947054494</v>
+        <v>0.3705748196509701</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.4860024736564676</v>
+        <v>0.4837001677473476</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>300</v>
@@ -4601,19 +4601,19 @@
         <v>330627</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>297538</v>
+        <v>299718</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>359332</v>
+        <v>358806</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.436870709698312</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.3931490993985965</v>
+        <v>0.3960286405600073</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.4747988717666456</v>
+        <v>0.4741050380462227</v>
       </c>
     </row>
     <row r="13">
@@ -4630,19 +4630,19 @@
         <v>83271</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>66323</v>
+        <v>66727</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>101612</v>
+        <v>104109</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.198834018644143</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1583649987252264</v>
+        <v>0.1593294393181204</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2426272871819202</v>
+        <v>0.2485913218037014</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>64</v>
@@ -4651,19 +4651,19 @@
         <v>68162</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>54122</v>
+        <v>53549</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>85977</v>
+        <v>84394</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2016560556419452</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1601195674138084</v>
+        <v>0.1584225432468358</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.254360596005138</v>
+        <v>0.2496785791333387</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>134</v>
@@ -4672,19 +4672,19 @@
         <v>151433</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>127259</v>
+        <v>128753</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>176043</v>
+        <v>175617</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.20009441725883</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1681527271573868</v>
+        <v>0.1701260135907856</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2326119763077687</v>
+        <v>0.2320494127489053</v>
       </c>
     </row>
     <row r="14">
@@ -4701,19 +4701,19 @@
         <v>104213</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>86292</v>
+        <v>85430</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>125826</v>
+        <v>124764</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.2488399176448872</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.2060478806691792</v>
+        <v>0.2039891103283142</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.3004462392238065</v>
+        <v>0.2979094301673836</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>73</v>
@@ -4722,19 +4722,19 @@
         <v>81945</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>65323</v>
+        <v>66751</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>99053</v>
+        <v>99451</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.2424314823333</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.1932574177205453</v>
+        <v>0.1974807917335474</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.2930452638124748</v>
+        <v>0.2942242442776054</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>164</v>
@@ -4743,19 +4743,19 @@
         <v>186158</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>161127</v>
+        <v>160212</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>212057</v>
+        <v>210678</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.2459777358253979</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.2129038506857554</v>
+        <v>0.2116950140521578</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.2801992575222957</v>
+        <v>0.2783776066473829</v>
       </c>
     </row>
     <row r="15">
@@ -4847,19 +4847,19 @@
         <v>12758</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>6877</v>
+        <v>5909</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>21679</v>
+        <v>21668</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.02033362299203762</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.01095953043213191</v>
+        <v>0.009416745749555113</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.03455106987049192</v>
+        <v>0.03453316306093456</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>2</v>
@@ -4871,7 +4871,7 @@
         <v>0</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>6858</v>
+        <v>6686</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.007442920543813405</v>
@@ -4880,7 +4880,7 @@
         <v>0</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.02647348169848664</v>
+        <v>0.0258067564409457</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>14</v>
@@ -4889,19 +4889,19 @@
         <v>14687</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>7979</v>
+        <v>8256</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>24078</v>
+        <v>23582</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.01656663785953449</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.009000711924886429</v>
+        <v>0.009312832801980454</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.02716037824820464</v>
+        <v>0.02660088670540629</v>
       </c>
     </row>
     <row r="17">
@@ -4918,19 +4918,19 @@
         <v>64765</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>51173</v>
+        <v>50966</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>82338</v>
+        <v>80861</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1032199501312382</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.0815564448675055</v>
+        <v>0.08122767743928266</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1312263666910266</v>
+        <v>0.1288716256084882</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>17</v>
@@ -4939,19 +4939,19 @@
         <v>18135</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>11014</v>
+        <v>11968</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>28883</v>
+        <v>29497</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.07000119257428856</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.04251401764747537</v>
+        <v>0.0461976940194414</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1114900391487554</v>
+        <v>0.1138610109787729</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>80</v>
@@ -4960,19 +4960,19 @@
         <v>82900</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>65010</v>
+        <v>65814</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>99803</v>
+        <v>99423</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.09351259971027695</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.07333189741126239</v>
+        <v>0.07423889182669222</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1125790305610809</v>
+        <v>0.1121509927798503</v>
       </c>
     </row>
     <row r="18">
@@ -4989,19 +4989,19 @@
         <v>221869</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>198240</v>
+        <v>199130</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>246366</v>
+        <v>247091</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.3536035403808286</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.3159455698000504</v>
+        <v>0.3173640746624278</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.3926458572222309</v>
+        <v>0.3938023117047416</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>93</v>
@@ -5010,19 +5010,19 @@
         <v>96917</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>83139</v>
+        <v>80838</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>113989</v>
+        <v>112571</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.3741073840659229</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.3209247709787798</v>
+        <v>0.3120420279932426</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.4400076983239429</v>
+        <v>0.4345328500932815</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>305</v>
@@ -5031,19 +5031,19 @@
         <v>318785</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>290131</v>
+        <v>290065</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>346500</v>
+        <v>346951</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.3595952754806919</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.3272733705971321</v>
+        <v>0.3271981905712493</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.3908584530210593</v>
+        <v>0.3913668297503691</v>
       </c>
     </row>
     <row r="19">
@@ -5060,19 +5060,19 @@
         <v>144869</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>124762</v>
+        <v>119986</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>170606</v>
+        <v>165988</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.2308855004515058</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1988394904200394</v>
+        <v>0.1912274843367379</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2719034282205557</v>
+        <v>0.2645430649754951</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>57</v>
@@ -5081,19 +5081,19 @@
         <v>62305</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>48975</v>
+        <v>49364</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>78117</v>
+        <v>79205</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.2405043002179298</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1890477120141512</v>
+        <v>0.1905478480605219</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.3015386617389135</v>
+        <v>0.3057404720609229</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>189</v>
@@ -5102,19 +5102,19 @@
         <v>207174</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>183002</v>
+        <v>183869</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>236600</v>
+        <v>236155</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.2336963539219181</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.2064298002410307</v>
+        <v>0.2074074888608574</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2668895103795304</v>
+        <v>0.2663865588055823</v>
       </c>
     </row>
     <row r="20">
@@ -5131,19 +5131,19 @@
         <v>183189</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>160235</v>
+        <v>159158</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>207496</v>
+        <v>209609</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.2919573860443898</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.2553751294913236</v>
+        <v>0.2536584067286848</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.3306964804337245</v>
+        <v>0.3340648310258795</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>74</v>
@@ -5152,19 +5152,19 @@
         <v>79776</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>64845</v>
+        <v>65883</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>94683</v>
+        <v>95862</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.3079442025980453</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.2503093491334172</v>
+        <v>0.2543159123140961</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.3654870059085276</v>
+        <v>0.3700356795695086</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>244</v>
@@ -5173,19 +5173,19 @@
         <v>262965</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>236778</v>
+        <v>237268</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>292079</v>
+        <v>291456</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.2966291330275785</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.2670896856529969</v>
+        <v>0.2676429203532402</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.3294703949889435</v>
+        <v>0.3287671699700654</v>
       </c>
     </row>
     <row r="21">
@@ -5277,19 +5277,19 @@
         <v>30378</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>20358</v>
+        <v>20842</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>44109</v>
+        <v>44927</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.02623194990903207</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.0175800610503979</v>
+        <v>0.01799767697919341</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.03808914507000032</v>
+        <v>0.0387957325940152</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>12</v>
@@ -5298,19 +5298,19 @@
         <v>12295</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>6196</v>
+        <v>6957</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>20194</v>
+        <v>20897</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.0160589615733416</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.008092501440463546</v>
+        <v>0.009086190967598762</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.02637482031446674</v>
+        <v>0.02729374671229582</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>40</v>
@@ -5319,19 +5319,19 @@
         <v>42673</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>31935</v>
+        <v>30196</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>58740</v>
+        <v>56640</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.0221830171219571</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.0166008418408072</v>
+        <v>0.0156968896458276</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.03053486187272421</v>
+        <v>0.02944333736234488</v>
       </c>
     </row>
     <row r="23">
@@ -5348,19 +5348,19 @@
         <v>103667</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>85045</v>
+        <v>84606</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>126589</v>
+        <v>124035</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.0895192808742379</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.07343837407566728</v>
+        <v>0.07305981119090055</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.109313163002695</v>
+        <v>0.1071071511460113</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>76</v>
@@ -5369,19 +5369,19 @@
         <v>80105</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>65181</v>
+        <v>63691</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>99729</v>
+        <v>98498</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.1046247377230508</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.08513236133782334</v>
+        <v>0.08318630323356774</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.1302553864083217</v>
+        <v>0.1286470637705842</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>173</v>
@@ -5390,19 +5390,19 @@
         <v>183772</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>158438</v>
+        <v>158183</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>210998</v>
+        <v>210088</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.09553137658109427</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.08236180247925533</v>
+        <v>0.08222898261743987</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.1096842759881166</v>
+        <v>0.1092110288539319</v>
       </c>
     </row>
     <row r="24">
@@ -5419,19 +5419,19 @@
         <v>379523</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>343109</v>
+        <v>350807</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>410451</v>
+        <v>412370</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.327728028667357</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.296282815859052</v>
+        <v>0.302930245158503</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.3544344620457469</v>
+        <v>0.3560918588710037</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>263</v>
@@ -5440,19 +5440,19 @@
         <v>282521</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>254656</v>
+        <v>254323</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>308286</v>
+        <v>308351</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.3689985139971448</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.3326038692196368</v>
+        <v>0.3321685624243481</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.4026500520290019</v>
+        <v>0.4027343672458613</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>624</v>
@@ -5461,19 +5461,19 @@
         <v>662045</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>621173</v>
+        <v>619888</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>706433</v>
+        <v>705200</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.3441540202910791</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.3229072657511914</v>
+        <v>0.3222393085107182</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.3672285368788172</v>
+        <v>0.366587481561682</v>
       </c>
     </row>
     <row r="25">
@@ -5490,19 +5490,19 @@
         <v>261601</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>232495</v>
+        <v>232333</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>288545</v>
+        <v>289756</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.2258990375694156</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.2007648588597471</v>
+        <v>0.2006257441610934</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2491660038053877</v>
+        <v>0.2502114597255069</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>144</v>
@@ -5511,19 +5511,19 @@
         <v>154754</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>133831</v>
+        <v>133323</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>179746</v>
+        <v>178702</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.202122678099289</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.174794911523531</v>
+        <v>0.1741326899504288</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2347644734183992</v>
+        <v>0.2334015048664904</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>388</v>
@@ -5532,19 +5532,19 @@
         <v>416355</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>380583</v>
+        <v>382252</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>454293</v>
+        <v>457817</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.2164358515085282</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.197840383959172</v>
+        <v>0.1987078460356162</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.236157252322518</v>
+        <v>0.237989120649118</v>
       </c>
     </row>
     <row r="26">
@@ -5561,19 +5561,19 @@
         <v>382874</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>349560</v>
+        <v>350761</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>416953</v>
+        <v>417109</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.3306217029799574</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.3018535648707901</v>
+        <v>0.3028905433839783</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.3600497694314054</v>
+        <v>0.3601837778578824</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>215</v>
@@ -5582,19 +5582,19 @@
         <v>235967</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>212370</v>
+        <v>208922</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>262062</v>
+        <v>263520</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.3081951086071738</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.2773743117580236</v>
+        <v>0.2728710007236216</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.342276697881002</v>
+        <v>0.3441818139539733</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>567</v>
@@ -5603,19 +5603,19 @@
         <v>618842</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>576375</v>
+        <v>575911</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>657894</v>
+        <v>663098</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.3216957344973413</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.2996198585712314</v>
+        <v>0.2993789876746417</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.341996239211957</v>
+        <v>0.3447015910806813</v>
       </c>
     </row>
     <row r="27">
@@ -5707,19 +5707,19 @@
         <v>5008</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>1888</v>
+        <v>1898</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>11308</v>
+        <v>11338</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.009807912191376555</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.003697136580883267</v>
+        <v>0.003716811352167172</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.02214685407707848</v>
+        <v>0.02220606624608262</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>10</v>
@@ -5728,19 +5728,19 @@
         <v>11225</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>5315</v>
+        <v>6151</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>20341</v>
+        <v>21038</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.01476228576628691</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.006990357286995207</v>
+        <v>0.008090100076360459</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.02675114821920946</v>
+        <v>0.02766778752487148</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>15</v>
@@ -5749,19 +5749,19 @@
         <v>16233</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>8953</v>
+        <v>9558</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>26464</v>
+        <v>26410</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.01277192542235104</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.007043920367655781</v>
+        <v>0.007520607985261681</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.02082212782497728</v>
+        <v>0.02077948344511092</v>
       </c>
     </row>
     <row r="29">
@@ -5778,19 +5778,19 @@
         <v>61979</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>47474</v>
+        <v>47940</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>80209</v>
+        <v>79806</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.1213850829542813</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.09297817576605434</v>
+        <v>0.09388948000309963</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.1570895030452932</v>
+        <v>0.1562987188875528</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>42</v>
@@ -5799,19 +5799,19 @@
         <v>46617</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>34137</v>
+        <v>33730</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>62320</v>
+        <v>61595</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.06130832920311974</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.04489464945347221</v>
+        <v>0.04435957834730105</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.08196014223887441</v>
+        <v>0.08100577333942924</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>99</v>
@@ -5820,19 +5820,19 @@
         <v>108596</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>86249</v>
+        <v>89377</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>130711</v>
+        <v>132620</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.08544344668078721</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.06786075959834699</v>
+        <v>0.07032187449916207</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.1028439878854598</v>
+        <v>0.1043454408037297</v>
       </c>
     </row>
     <row r="30">
@@ -5849,19 +5849,19 @@
         <v>175403</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>154967</v>
+        <v>154558</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>196771</v>
+        <v>198766</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.3435259719215333</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.3035018338056925</v>
+        <v>0.3027019489987005</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.3853760956601771</v>
+        <v>0.3892816601101156</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>189</v>
@@ -5870,19 +5870,19 @@
         <v>205262</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>182054</v>
+        <v>179347</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>229076</v>
+        <v>231521</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.2699489509375563</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.2394279884640232</v>
+        <v>0.2358668212232903</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.3012688389864236</v>
+        <v>0.3044836640130265</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>357</v>
@@ -5891,19 +5891,19 @@
         <v>380665</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>347744</v>
+        <v>347592</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>413715</v>
+        <v>413513</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.2995076393523868</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.273605629553217</v>
+        <v>0.273485952099849</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.3255113497185508</v>
+        <v>0.3253528972047281</v>
       </c>
     </row>
     <row r="31">
@@ -5920,19 +5920,19 @@
         <v>99855</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>83384</v>
+        <v>82759</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>118621</v>
+        <v>120546</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.1955650958679207</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.1633072112874555</v>
+        <v>0.1620831683742134</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.2323196246740504</v>
+        <v>0.2360887579930049</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>160</v>
@@ -5941,19 +5941,19 @@
         <v>176653</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>154397</v>
+        <v>151099</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>202810</v>
+        <v>200352</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.2323248935307363</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.2030539067109507</v>
+        <v>0.198717461005489</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.2667240877902988</v>
+        <v>0.26349157546887</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>257</v>
@@ -5962,19 +5962,19 @@
         <v>276508</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>244463</v>
+        <v>248223</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>307393</v>
+        <v>308173</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.21755708435912</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.1923438538577936</v>
+        <v>0.1953026004397724</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.24185764214852</v>
+        <v>0.2424710563382197</v>
       </c>
     </row>
     <row r="32">
@@ -5991,19 +5991,19 @@
         <v>168352</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>148044</v>
+        <v>148547</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>189515</v>
+        <v>190565</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.3297159370648881</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.2899438000096849</v>
+        <v>0.2909276915788126</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.3711649612422292</v>
+        <v>0.373221242362836</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>301</v>
@@ -6012,19 +6012,19 @@
         <v>320615</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>293009</v>
+        <v>295071</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>349395</v>
+        <v>350892</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.4216555405623008</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.3853491815180413</v>
+        <v>0.3880619568196157</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.4595049061838268</v>
+        <v>0.4614736658519585</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>461</v>
@@ -6033,19 +6033,19 @@
         <v>488967</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>455573</v>
+        <v>456091</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>530345</v>
+        <v>526488</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.3847199041853549</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.3584458552707067</v>
+        <v>0.3588529989305753</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.417276142579387</v>
+        <v>0.4142417588982203</v>
       </c>
     </row>
     <row r="33">
@@ -6137,19 +6137,19 @@
         <v>2814</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>893</v>
+        <v>886</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>7571</v>
+        <v>7615</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.01054395973671448</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.003344205028030818</v>
+        <v>0.003318989187139794</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.02836911420270433</v>
+        <v>0.02853217606620118</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>11</v>
@@ -6158,19 +6158,19 @@
         <v>10942</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>5837</v>
+        <v>5946</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>18963</v>
+        <v>19388</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.009883393472861395</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.005272118935085317</v>
+        <v>0.005370600574506683</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.01712833854316188</v>
+        <v>0.01751185789304715</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>14</v>
@@ -6179,19 +6179,19 @@
         <v>13756</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>7866</v>
+        <v>7953</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>22633</v>
+        <v>22088</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.01001169796705878</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.005725140931058149</v>
+        <v>0.005788033761869336</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.0164723916099849</v>
+        <v>0.01607510094620868</v>
       </c>
     </row>
     <row r="35">
@@ -6208,19 +6208,19 @@
         <v>43572</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>31221</v>
+        <v>31899</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>54637</v>
+        <v>55937</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.1632632497519981</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.1169833317454479</v>
+        <v>0.1195261985167644</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.204724585782455</v>
+        <v>0.2095962163407483</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>95</v>
@@ -6229,19 +6229,19 @@
         <v>101174</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>81793</v>
+        <v>83458</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>120872</v>
+        <v>123078</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.09138340301524624</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.07387782881153286</v>
+        <v>0.07538177964500202</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.1091748441014768</v>
+        <v>0.1111679623046539</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>139</v>
@@ -6250,19 +6250,19 @@
         <v>144746</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>123536</v>
+        <v>122329</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>169913</v>
+        <v>168486</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.1053449204029942</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.0899086180081007</v>
+        <v>0.0890297826726045</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.1236610018728037</v>
+        <v>0.1226221523171969</v>
       </c>
     </row>
     <row r="36">
@@ -6279,19 +6279,19 @@
         <v>139441</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>122739</v>
+        <v>124259</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>156376</v>
+        <v>154612</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.5224815091244157</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.4598988612481352</v>
+        <v>0.4655946901232146</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.5859350659485422</v>
+        <v>0.5793276430122458</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>343</v>
@@ -6300,19 +6300,19 @@
         <v>361526</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>330826</v>
+        <v>331580</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>393269</v>
+        <v>395864</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.3265402047506969</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.2988117254529071</v>
+        <v>0.2994926391320567</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.3552111990694786</v>
+        <v>0.3575554754967963</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>483</v>
@@ -6321,19 +6321,19 @@
         <v>500967</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>464782</v>
+        <v>461851</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>539133</v>
+        <v>536942</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.3645986877912981</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.3382640928034933</v>
+        <v>0.3361307323472227</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.3923757317030291</v>
+        <v>0.3907809323448132</v>
       </c>
     </row>
     <row r="37">
@@ -6350,19 +6350,19 @@
         <v>35300</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>25012</v>
+        <v>25588</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>48436</v>
+        <v>48827</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.1322679542000086</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.09371923215701265</v>
+        <v>0.09587609368037343</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.1814886942140612</v>
+        <v>0.1829524802310334</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>251</v>
@@ -6371,19 +6371,19 @@
         <v>267226</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>237779</v>
+        <v>239985</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>296628</v>
+        <v>295181</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.2413662231226185</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.2147686860441318</v>
+        <v>0.216761521366549</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.267923164411152</v>
+        <v>0.266615715668613</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>285</v>
@@ -6392,19 +6392,19 @@
         <v>302526</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>270515</v>
+        <v>271127</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>336501</v>
+        <v>337826</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.2201756189729657</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.1968781972704298</v>
+        <v>0.1973237012681706</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.2449025366243676</v>
+        <v>0.2458663003076018</v>
       </c>
     </row>
     <row r="38">
@@ -6421,19 +6421,19 @@
         <v>45755</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>34294</v>
+        <v>35365</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>60450</v>
+        <v>60190</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.1714433271868631</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.1285001296522283</v>
+        <v>0.1325122667769439</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.2265053792675121</v>
+        <v>0.2255311977100991</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>342</v>
@@ -6442,19 +6442,19 @@
         <v>366272</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>335799</v>
+        <v>333226</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>400470</v>
+        <v>396720</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.330826775638577</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.303303264589681</v>
+        <v>0.3009794730615911</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.3617154552099429</v>
+        <v>0.3583283118930218</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>386</v>
@@ -6463,19 +6463,19 @@
         <v>412027</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>375474</v>
+        <v>375486</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>444249</v>
+        <v>445475</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.2998690748656832</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.2732660942051858</v>
+        <v>0.2732748427184049</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.3233201176151576</v>
+        <v>0.324212111295287</v>
       </c>
     </row>
     <row r="39">
@@ -6567,19 +6567,19 @@
         <v>59168</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>45256</v>
+        <v>43887</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>76376</v>
+        <v>78727</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.01730576810827186</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.01323672352296525</v>
+        <v>0.01283628813941953</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.02233870248946074</v>
+        <v>0.0230263301475789</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>48</v>
@@ -6588,19 +6588,19 @@
         <v>49932</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>38729</v>
+        <v>37414</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>66496</v>
+        <v>65654</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0.0140905050009325</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.01092904163668457</v>
+        <v>0.01055785594754789</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.01876449402823229</v>
+        <v>0.01852688272147422</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>103</v>
@@ -6609,19 +6609,19 @@
         <v>109101</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>90221</v>
+        <v>87736</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>132858</v>
+        <v>133229</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.01566934066589798</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.01295785951773139</v>
+        <v>0.01260084783388623</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.01908139878083062</v>
+        <v>0.01913471058936004</v>
       </c>
     </row>
     <row r="41">
@@ -6638,19 +6638,19 @@
         <v>356939</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>323884</v>
+        <v>321732</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>396028</v>
+        <v>396553</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.1043991940060975</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.09473130227417899</v>
+        <v>0.0941017663206872</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.1158322548793396</v>
+        <v>0.115985685788002</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>287</v>
@@ -6659,19 +6659,19 @@
         <v>308351</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>272428</v>
+        <v>272599</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>343351</v>
+        <v>342053</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.08701388973212119</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.07687683337622546</v>
+        <v>0.07692495044412909</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.0968905676453415</v>
+        <v>0.09652439076451977</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>626</v>
@@ -6680,19 +6680,19 @@
         <v>665289</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>616959</v>
+        <v>613644</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>718493</v>
+        <v>719777</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.09555083912558604</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.08860940863605478</v>
+        <v>0.0881334205056238</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.1031920775324053</v>
+        <v>0.1033764686716249</v>
       </c>
     </row>
     <row r="42">
@@ -6709,19 +6709,19 @@
         <v>1289344</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>1228864</v>
+        <v>1234311</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>1345149</v>
+        <v>1344784</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.3771137340860462</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.3594242223274456</v>
+        <v>0.3610173867734504</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.3934358211523019</v>
+        <v>0.3933290654828878</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>1126</v>
@@ -6730,19 +6730,19 @@
         <v>1212793</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>1157594</v>
+        <v>1156105</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>1270749</v>
+        <v>1274744</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.3422397957371317</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.3266630490543097</v>
+        <v>0.3262428543808843</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.3585942616312701</v>
+        <v>0.3597217469242923</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>2357</v>
@@ -6751,19 +6751,19 @@
         <v>2502138</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>2421700</v>
+        <v>2422297</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>2582058</v>
+        <v>2588269</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.3593644340030919</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.3478116685584256</v>
+        <v>0.3478974675403457</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.3708428655074289</v>
+        <v>0.3717348938050743</v>
       </c>
     </row>
     <row r="43">
@@ -6780,19 +6780,19 @@
         <v>721423</v>
       </c>
       <c r="E43" s="5" t="n">
-        <v>671623</v>
+        <v>673635</v>
       </c>
       <c r="F43" s="5" t="n">
-        <v>772520</v>
+        <v>775059</v>
       </c>
       <c r="G43" s="6" t="n">
         <v>0.2110052173373484</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>0.1964395242064633</v>
+        <v>0.1970280124318508</v>
       </c>
       <c r="I43" s="6" t="n">
-        <v>0.225950505027247</v>
+        <v>0.2266930321243211</v>
       </c>
       <c r="J43" s="5" t="n">
         <v>742</v>
@@ -6801,19 +6801,19 @@
         <v>799880</v>
       </c>
       <c r="L43" s="5" t="n">
-        <v>750551</v>
+        <v>748795</v>
       </c>
       <c r="M43" s="5" t="n">
-        <v>851431</v>
+        <v>851651</v>
       </c>
       <c r="N43" s="6" t="n">
         <v>0.2257191988780641</v>
       </c>
       <c r="O43" s="6" t="n">
-        <v>0.2117990197429377</v>
+        <v>0.2113033483604833</v>
       </c>
       <c r="P43" s="6" t="n">
-        <v>0.2402663061197678</v>
+        <v>0.2403284324087689</v>
       </c>
       <c r="Q43" s="5" t="n">
         <v>1407</v>
@@ -6822,19 +6822,19 @@
         <v>1521303</v>
       </c>
       <c r="S43" s="5" t="n">
-        <v>1458471</v>
+        <v>1449450</v>
       </c>
       <c r="T43" s="5" t="n">
-        <v>1597953</v>
+        <v>1591370</v>
       </c>
       <c r="U43" s="6" t="n">
         <v>0.2184939864912155</v>
       </c>
       <c r="V43" s="6" t="n">
-        <v>0.2094698938476985</v>
+        <v>0.2081743688589215</v>
       </c>
       <c r="W43" s="6" t="n">
-        <v>0.2295027658881695</v>
+        <v>0.2285572272429134</v>
       </c>
     </row>
     <row r="44">
@@ -6851,19 +6851,19 @@
         <v>992106</v>
       </c>
       <c r="E44" s="5" t="n">
-        <v>934732</v>
+        <v>942122</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>1051524</v>
+        <v>1046189</v>
       </c>
       <c r="G44" s="6" t="n">
         <v>0.290176086462236</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.273394951883897</v>
+        <v>0.2755564175396872</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.3075547960941968</v>
+        <v>0.3059945609645076</v>
       </c>
       <c r="J44" s="5" t="n">
         <v>1081</v>
@@ -6872,19 +6872,19 @@
         <v>1172738</v>
       </c>
       <c r="L44" s="5" t="n">
-        <v>1113718</v>
+        <v>1111991</v>
       </c>
       <c r="M44" s="5" t="n">
-        <v>1231687</v>
+        <v>1231011</v>
       </c>
       <c r="N44" s="6" t="n">
         <v>0.3309366106517506</v>
       </c>
       <c r="O44" s="6" t="n">
-        <v>0.3142816827059008</v>
+        <v>0.3137942967261408</v>
       </c>
       <c r="P44" s="6" t="n">
-        <v>0.3475713547903128</v>
+        <v>0.3473805625725466</v>
       </c>
       <c r="Q44" s="5" t="n">
         <v>1993</v>
@@ -6893,19 +6893,19 @@
         <v>2164845</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>2082928</v>
+        <v>2085297</v>
       </c>
       <c r="T44" s="5" t="n">
-        <v>2248799</v>
+        <v>2246527</v>
       </c>
       <c r="U44" s="6" t="n">
         <v>0.3109213997142086</v>
       </c>
       <c r="V44" s="6" t="n">
-        <v>0.2991563226355939</v>
+        <v>0.2994965147253077</v>
       </c>
       <c r="W44" s="6" t="n">
-        <v>0.322979209947631</v>
+        <v>0.3226528233444653</v>
       </c>
     </row>
     <row r="45">
@@ -7239,19 +7239,19 @@
         <v>5436</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>1975</v>
+        <v>1920</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>12259</v>
+        <v>12435</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.01266780795370673</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.004602706774917119</v>
+        <v>0.004475298860672237</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.02857074922015074</v>
+        <v>0.0289801957028847</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>5</v>
@@ -7260,19 +7260,19 @@
         <v>5057</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>1880</v>
+        <v>1829</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>11117</v>
+        <v>10797</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.01457233793644954</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.005416246758064433</v>
+        <v>0.005271268862395921</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.0320317489325016</v>
+        <v>0.03111086502595626</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>10</v>
@@ -7281,19 +7281,19 @@
         <v>10493</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>5060</v>
+        <v>5338</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>18973</v>
+        <v>18095</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.01351942052948803</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.006519831534524741</v>
+        <v>0.006877699249098256</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.02444550655506626</v>
+        <v>0.02331403755877641</v>
       </c>
     </row>
     <row r="5">
@@ -7310,19 +7310,19 @@
         <v>58746</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>45681</v>
+        <v>45287</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>74618</v>
+        <v>74863</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.13690830516655</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1064608170739617</v>
+        <v>0.1055420110543084</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1738978241755852</v>
+        <v>0.1744689437511761</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>40</v>
@@ -7331,19 +7331,19 @@
         <v>40704</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>29799</v>
+        <v>29762</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>54099</v>
+        <v>54007</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1172830102012773</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.08586187657870568</v>
+        <v>0.08575641638824812</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1558795489805204</v>
+        <v>0.155616335695866</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>96</v>
@@ -7352,19 +7352,19 @@
         <v>99450</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>82852</v>
+        <v>82314</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>122156</v>
+        <v>121983</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1281328339756086</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1067475613559887</v>
+        <v>0.1060550848304332</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1573871318807663</v>
+        <v>0.1571650056319677</v>
       </c>
     </row>
     <row r="6">
@@ -7381,19 +7381,19 @@
         <v>161985</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>140211</v>
+        <v>139333</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>183419</v>
+        <v>181559</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.3775067773480259</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.3267625885287362</v>
+        <v>0.3247154662216321</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.4274586851400022</v>
+        <v>0.4231226675942314</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>138</v>
@@ -7402,19 +7402,19 @@
         <v>139195</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>122030</v>
+        <v>123225</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>159298</v>
+        <v>157602</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.4010736746498907</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.3516149533531969</v>
+        <v>0.3550601355888283</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.4589979825468138</v>
+        <v>0.4541130196180106</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>282</v>
@@ -7423,19 +7423,19 @@
         <v>301180</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>274507</v>
+        <v>273642</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>330339</v>
+        <v>331676</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.3880447401505389</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.3536785483318163</v>
+        <v>0.3525644377677224</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.4256144918550385</v>
+        <v>0.4273365364412078</v>
       </c>
     </row>
     <row r="7">
@@ -7452,19 +7452,19 @@
         <v>143490</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>122536</v>
+        <v>124228</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>164374</v>
+        <v>163340</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.3344028312723066</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2855693988392306</v>
+        <v>0.2895147236613035</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3830742111967531</v>
+        <v>0.3806650636846898</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>97</v>
@@ -7473,19 +7473,19 @@
         <v>104692</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>85128</v>
+        <v>87588</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>122497</v>
+        <v>121675</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.3016574771691813</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2452855238086207</v>
+        <v>0.2523759804928802</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3529613330220823</v>
+        <v>0.3505931432754891</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>232</v>
@@ -7494,19 +7494,19 @@
         <v>248181</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>220404</v>
+        <v>222002</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>274286</v>
+        <v>273586</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.3197607119014828</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2839714129782153</v>
+        <v>0.2860303172281226</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3533942194511497</v>
+        <v>0.3524928100414996</v>
       </c>
     </row>
     <row r="8">
@@ -7523,19 +7523,19 @@
         <v>59435</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>44990</v>
+        <v>46679</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>74960</v>
+        <v>76737</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.1385142782594108</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.1048496903827869</v>
+        <v>0.1087845622878835</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.1746952455709312</v>
+        <v>0.1788349439174448</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>52</v>
@@ -7544,19 +7544,19 @@
         <v>57408</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>44193</v>
+        <v>43612</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>73759</v>
+        <v>74184</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.1654135000432011</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.1273380527094302</v>
+        <v>0.1256633352379928</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.2125283733428306</v>
+        <v>0.2137533735772469</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>108</v>
@@ -7565,19 +7565,19 @@
         <v>116843</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>96728</v>
+        <v>96416</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>138943</v>
+        <v>138307</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.1505422934428817</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.1246257196092227</v>
+        <v>0.1242237227416697</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.1790157782224263</v>
+        <v>0.178196792323315</v>
       </c>
     </row>
     <row r="9">
@@ -7669,19 +7669,19 @@
         <v>4799</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>1861</v>
+        <v>1852</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>11114</v>
+        <v>10575</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.01278972499859174</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.004960635889806951</v>
+        <v>0.004935823831299728</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.02962186277939491</v>
+        <v>0.02818494126068404</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>4</v>
@@ -7690,19 +7690,19 @@
         <v>4549</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>1177</v>
+        <v>1210</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>10718</v>
+        <v>10970</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.01225489113691552</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.003170851363505068</v>
+        <v>0.003260362168178756</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.02887747969237234</v>
+        <v>0.0295560223790678</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>9</v>
@@ -7711,19 +7711,19 @@
         <v>9347</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>4670</v>
+        <v>4389</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>17420</v>
+        <v>16341</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.01252375215447442</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.006256532684369838</v>
+        <v>0.005881063493125982</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.02334039711879412</v>
+        <v>0.02189483409427215</v>
       </c>
     </row>
     <row r="11">
@@ -7740,19 +7740,19 @@
         <v>51532</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>38959</v>
+        <v>38530</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>67842</v>
+        <v>67619</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.1373483145326485</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1038387793966217</v>
+        <v>0.1026945304244352</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.1808195559665656</v>
+        <v>0.1802239294580273</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>52</v>
@@ -7761,19 +7761,19 @@
         <v>54512</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>41073</v>
+        <v>42271</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>68698</v>
+        <v>69769</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.1468699389555691</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.110662190218813</v>
+        <v>0.1138892395537452</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.1850892640289913</v>
+        <v>0.187974877747117</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>95</v>
@@ -7782,19 +7782,19 @@
         <v>106044</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>86592</v>
+        <v>85743</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>127714</v>
+        <v>125893</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.1420834177298246</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.1160200952425759</v>
+        <v>0.1148819842101163</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.1711176747447651</v>
+        <v>0.1686774293862077</v>
       </c>
     </row>
     <row r="12">
@@ -7811,19 +7811,19 @@
         <v>127821</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>108900</v>
+        <v>108026</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>147672</v>
+        <v>146568</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.3406803026444593</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.2902507668229679</v>
+        <v>0.2879218688546824</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.393591409247924</v>
+        <v>0.3906479459830444</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>136</v>
@@ -7832,19 +7832,19 @@
         <v>142023</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>123318</v>
+        <v>122290</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>161960</v>
+        <v>160134</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.3826449802871184</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.3322496729197188</v>
+        <v>0.3294783336496699</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.4363608231168277</v>
+        <v>0.4314409613439693</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>256</v>
@@ -7853,19 +7853,19 @@
         <v>269843</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>244657</v>
+        <v>244300</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>299709</v>
+        <v>298817</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.3615493340668592</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.327803378162957</v>
+        <v>0.3273246596786999</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.4015646123999491</v>
+        <v>0.4003689419727622</v>
       </c>
     </row>
     <row r="13">
@@ -7882,19 +7882,19 @@
         <v>132426</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>114423</v>
+        <v>115496</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>152233</v>
+        <v>152534</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.3529550033147544</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.3049730890805274</v>
+        <v>0.3078330170500852</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.4057458751648374</v>
+        <v>0.4065487306073857</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>115</v>
@@ -7903,19 +7903,19 @@
         <v>121701</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>102319</v>
+        <v>104222</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>138549</v>
+        <v>141159</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.3278915893657203</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.275673047390208</v>
+        <v>0.2808006720845168</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3732846689782374</v>
+        <v>0.380316112360563</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>244</v>
@@ -7924,19 +7924,19 @@
         <v>254126</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>229584</v>
+        <v>228040</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>281874</v>
+        <v>280040</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.3404909692118615</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.3076079062119018</v>
+        <v>0.3055387139265787</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.3776685622215187</v>
+        <v>0.3752116107956116</v>
       </c>
     </row>
     <row r="14">
@@ -7953,19 +7953,19 @@
         <v>58615</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>45196</v>
+        <v>45642</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>73312</v>
+        <v>74789</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.1562266545095461</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1204605753169455</v>
+        <v>0.1216498809457946</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1953996710949665</v>
+        <v>0.1993360968848883</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>44</v>
@@ -7974,19 +7974,19 @@
         <v>48377</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>36767</v>
+        <v>36144</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>63086</v>
+        <v>63134</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.1303386002546767</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.09905947803765332</v>
+        <v>0.0973806756527384</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.1699689612580124</v>
+        <v>0.1700996347611294</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>99</v>
@@ -7995,19 +7995,19 @@
         <v>106992</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>86463</v>
+        <v>86909</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>128000</v>
+        <v>127961</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.1433525268369802</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.115847272095491</v>
+        <v>0.116444446568512</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.1715010566943425</v>
+        <v>0.1714478686343791</v>
       </c>
     </row>
     <row r="15">
@@ -8099,19 +8099,19 @@
         <v>5661</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>1992</v>
+        <v>1978</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>13383</v>
+        <v>13998</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.01087035485140052</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.003825024132933866</v>
+        <v>0.003798622086994104</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.02569726847096961</v>
+        <v>0.02687816412088783</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>0</v>
@@ -8133,19 +8133,19 @@
         <v>5661</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>1858</v>
+        <v>1848</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>13199</v>
+        <v>12875</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.008241465989312149</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.002705227719792429</v>
+        <v>0.002690069463262479</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.01921475280010205</v>
+        <v>0.01874308114861138</v>
       </c>
     </row>
     <row r="17">
@@ -8162,19 +8162,19 @@
         <v>75660</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>61107</v>
+        <v>60904</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>93554</v>
+        <v>93395</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1452795712962255</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1173363420723074</v>
+        <v>0.1169462339155795</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1796398233929374</v>
+        <v>0.1793340004249086</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>14</v>
@@ -8183,19 +8183,19 @@
         <v>14459</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>8428</v>
+        <v>8756</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>22772</v>
+        <v>23051</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.08703838051435261</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.05073538259882537</v>
+        <v>0.05270956091944989</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1370787626788576</v>
+        <v>0.1387610735350986</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>87</v>
@@ -8204,19 +8204,19 @@
         <v>90119</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>74317</v>
+        <v>73548</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>110663</v>
+        <v>109764</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1311945096902096</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1081907511822218</v>
+        <v>0.1070710168788224</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1611027237598775</v>
+        <v>0.1597938511963512</v>
       </c>
     </row>
     <row r="18">
@@ -8233,19 +8233,19 @@
         <v>161652</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>139561</v>
+        <v>141668</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>182277</v>
+        <v>183216</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.3103978457889573</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.2679794142688426</v>
+        <v>0.2720253601373823</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.3500014274634426</v>
+        <v>0.3518051486467764</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>44</v>
@@ -8254,19 +8254,19 @@
         <v>48289</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>36081</v>
+        <v>37013</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>61086</v>
+        <v>60992</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.2906838262893277</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.217191579894749</v>
+        <v>0.2228041506336531</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.3677162947950919</v>
+        <v>0.3671521105549933</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>202</v>
@@ -8275,19 +8275,19 @@
         <v>209941</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>186954</v>
+        <v>185841</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>236985</v>
+        <v>234553</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.3056302032420452</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.2721667146959381</v>
+        <v>0.2705458121029723</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.345000490668761</v>
+        <v>0.3414611052293883</v>
       </c>
     </row>
     <row r="19">
@@ -8304,19 +8304,19 @@
         <v>174670</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>154094</v>
+        <v>152336</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>197144</v>
+        <v>196075</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.3353951605051725</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.2958863196254935</v>
+        <v>0.2925102269301204</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.3785495213021037</v>
+        <v>0.3764969743214093</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>52</v>
@@ -8325,19 +8325,19 @@
         <v>53254</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>42634</v>
+        <v>41915</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>65558</v>
+        <v>66122</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.3205673328573486</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.2566396519591632</v>
+        <v>0.2523154721772509</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.394633655571374</v>
+        <v>0.3980284191686474</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>221</v>
@@ -8346,19 +8346,19 @@
         <v>227923</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>200382</v>
+        <v>203319</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>252137</v>
+        <v>253892</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.3318091956047435</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.2917153322714933</v>
+        <v>0.295990518554906</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.3670586903089449</v>
+        <v>0.36961482695706</v>
       </c>
     </row>
     <row r="20">
@@ -8375,19 +8375,19 @@
         <v>103146</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>85966</v>
+        <v>85353</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>124125</v>
+        <v>123108</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.1980570675582443</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.1650688754869141</v>
+        <v>0.1638911043559627</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.2383396517171959</v>
+        <v>0.2363866520469022</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>43</v>
@@ -8396,19 +8396,19 @@
         <v>50121</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>39101</v>
+        <v>37864</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>63487</v>
+        <v>62856</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.3017104603389711</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.2353762170479093</v>
+        <v>0.2279304445955316</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.3821656700778481</v>
+        <v>0.3783718972402387</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>139</v>
@@ -8417,19 +8417,19 @@
         <v>153267</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>131409</v>
+        <v>129101</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>178445</v>
+        <v>174720</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.2231246254736895</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.1913038957963331</v>
+        <v>0.1879444738020514</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.2597794333994972</v>
+        <v>0.2543561370252645</v>
       </c>
     </row>
     <row r="21">
@@ -8521,19 +8521,19 @@
         <v>12660</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>6916</v>
+        <v>6735</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>20726</v>
+        <v>21382</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.01103137927762692</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.006026711703764357</v>
+        <v>0.005868820783489486</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.01805997020705991</v>
+        <v>0.01863159031665078</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>11</v>
@@ -8542,19 +8542,19 @@
         <v>10816</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>5824</v>
+        <v>5875</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>18904</v>
+        <v>17597</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.01312081457996577</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.007065602953637916</v>
+        <v>0.007126512525799841</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.02293194406251274</v>
+        <v>0.02134713035034357</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>23</v>
@@ -8563,19 +8563,19 @@
         <v>23476</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>14771</v>
+        <v>14071</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>35159</v>
+        <v>33986</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.01190483099857539</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.0074904341296658</v>
+        <v>0.007135866026111685</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.01782970911451315</v>
+        <v>0.01723489467559292</v>
       </c>
     </row>
     <row r="23">
@@ -8592,19 +8592,19 @@
         <v>148965</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>126599</v>
+        <v>126788</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>171534</v>
+        <v>174380</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.129806110576089</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.1103158867659678</v>
+        <v>0.1104809543637883</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.1494720261077808</v>
+        <v>0.1519522430492834</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>103</v>
@@ -8613,19 +8613,19 @@
         <v>106098</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>88758</v>
+        <v>87342</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>127792</v>
+        <v>125966</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.1287080991763306</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.1076733386582343</v>
+        <v>0.1059545861578404</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.1550254796620597</v>
+        <v>0.152810037395872</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>242</v>
@@ -8634,19 +8634,19 @@
         <v>255064</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>225861</v>
+        <v>226977</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>286935</v>
+        <v>287833</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.1293471062002816</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.1145380926810951</v>
+        <v>0.1151038694923652</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.1455097093880542</v>
+        <v>0.1459647912947234</v>
       </c>
     </row>
     <row r="24">
@@ -8663,19 +8663,19 @@
         <v>422299</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>389291</v>
+        <v>387789</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>455866</v>
+        <v>451735</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.3679842089415068</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.3392217093491849</v>
+        <v>0.3379133275778728</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.3972339544797001</v>
+        <v>0.3936343235729297</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>297</v>
@@ -8684,19 +8684,19 @@
         <v>300098</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>273932</v>
+        <v>272313</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>327357</v>
+        <v>328660</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.3640505649089626</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.3323079308261649</v>
+        <v>0.3303443613556641</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.3971186803431048</v>
+        <v>0.3986987197074351</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>695</v>
@@ -8705,19 +8705,19 @@
         <v>722397</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>680711</v>
+        <v>681483</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>767082</v>
+        <v>768270</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.3663398181599505</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.3451999598622842</v>
+        <v>0.3455915745385749</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.3890001919151216</v>
+        <v>0.3896028616566793</v>
       </c>
     </row>
     <row r="25">
@@ -8734,19 +8734,19 @@
         <v>332084</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>301678</v>
+        <v>302491</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>365313</v>
+        <v>364424</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.2893723216511813</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.2628771776695584</v>
+        <v>0.263585584294295</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.3183275704085206</v>
+        <v>0.3175531577428816</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>241</v>
@@ -8755,19 +8755,19 @@
         <v>250276</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>224747</v>
+        <v>224310</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>278509</v>
+        <v>279503</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.3036109588102994</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.2726422141159305</v>
+        <v>0.2721113477212608</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.3378606066181242</v>
+        <v>0.3390670150043065</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>568</v>
@@ -8776,19 +8776,19 @@
         <v>582360</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>540533</v>
+        <v>543302</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>624048</v>
+        <v>620197</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.2953245337712078</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.2741132979533965</v>
+        <v>0.2755174288193682</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.3164651784428589</v>
+        <v>0.3145123116891846</v>
       </c>
     </row>
     <row r="26">
@@ -8805,19 +8805,19 @@
         <v>231593</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>206736</v>
+        <v>203911</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>259811</v>
+        <v>258883</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.2018059795535959</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.1801466042873898</v>
+        <v>0.1776843697683639</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.2263949827724488</v>
+        <v>0.2255860557379999</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>145</v>
@@ -8826,19 +8826,19 @@
         <v>157043</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>133008</v>
+        <v>133642</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>181855</v>
+        <v>181372</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.1905095625244416</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.1613527039265606</v>
+        <v>0.1621220827032079</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.2206086401276206</v>
+        <v>0.2200234505256105</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>370</v>
@@ -8847,19 +8847,19 @@
         <v>388636</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>355076</v>
+        <v>352767</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>424961</v>
+        <v>427752</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.1970837108699847</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.1800648242904224</v>
+        <v>0.1788939950455529</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.2155051278712017</v>
+        <v>0.2169201072264869</v>
       </c>
     </row>
     <row r="27">
@@ -8951,19 +8951,19 @@
         <v>5775</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>2069</v>
+        <v>2103</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>12709</v>
+        <v>13559</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.009303132696989109</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.003334004725617198</v>
+        <v>0.00338765686483873</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.02047485192229074</v>
+        <v>0.02184503804031731</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>10</v>
@@ -8972,19 +8972,19 @@
         <v>10433</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>5244</v>
+        <v>4973</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>19085</v>
+        <v>18712</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.01413275600595101</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.007103195394350495</v>
+        <v>0.006736198993762543</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.02585202131105062</v>
+        <v>0.02534646055513505</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>15</v>
@@ -8993,19 +8993,19 @@
         <v>16208</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>9079</v>
+        <v>9380</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>25710</v>
+        <v>26406</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.01192680614252355</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.006681209334702036</v>
+        <v>0.006902616454259866</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.01891917136045286</v>
+        <v>0.01943083526167137</v>
       </c>
     </row>
     <row r="29">
@@ -9022,19 +9022,19 @@
         <v>77126</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>61171</v>
+        <v>60974</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>96594</v>
+        <v>97003</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.1242550034816068</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.09855069157491758</v>
+        <v>0.09823349913463533</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.1556189666004801</v>
+        <v>0.1562790870501992</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>46</v>
@@ -9043,19 +9043,19 @@
         <v>47811</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>35207</v>
+        <v>36761</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>61882</v>
+        <v>64159</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.06476339267073147</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.04769015962964943</v>
+        <v>0.04979557031274917</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.08382360469105721</v>
+        <v>0.08690700191372684</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>115</v>
@@ -9064,19 +9064,19 @@
         <v>124937</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>105680</v>
+        <v>104100</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>146933</v>
+        <v>146689</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.09193642508918286</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.07776582789154293</v>
+        <v>0.0766033373674832</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.1081226332830419</v>
+        <v>0.1079428651061886</v>
       </c>
     </row>
     <row r="30">
@@ -9093,19 +9093,19 @@
         <v>203300</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>177874</v>
+        <v>177432</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>225869</v>
+        <v>226190</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.3275302098600519</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.286566784392829</v>
+        <v>0.2858549901185879</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.3638911625882643</v>
+        <v>0.3644069558480759</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>209</v>
@@ -9114,19 +9114,19 @@
         <v>216940</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>191308</v>
+        <v>192410</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>241030</v>
+        <v>241178</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.293859587813028</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.2591391713872593</v>
+        <v>0.2606321996344971</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.3264909456135633</v>
+        <v>0.3266915442617447</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>402</v>
@@ -9135,19 +9135,19 @@
         <v>420240</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>386378</v>
+        <v>386697</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>456697</v>
+        <v>456895</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.3092387798026648</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.2843206442100104</v>
+        <v>0.2845555138295616</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.3360657174670389</v>
+        <v>0.3362121338165702</v>
       </c>
     </row>
     <row r="31">
@@ -9164,19 +9164,19 @@
         <v>190721</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>169475</v>
+        <v>167393</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>215483</v>
+        <v>213359</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.3072653790013921</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.2730352336932977</v>
+        <v>0.2696812742966915</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.3471574156646837</v>
+        <v>0.3437365300854112</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>260</v>
@@ -9185,19 +9185,19 @@
         <v>273194</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>247588</v>
+        <v>247676</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>298125</v>
+        <v>300602</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.3700588726806495</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.3353742627179934</v>
+        <v>0.3354935958417628</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.4038300892545532</v>
+        <v>0.4071854471853737</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>448</v>
@@ -9206,19 +9206,19 @@
         <v>463915</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>429218</v>
+        <v>426009</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>503095</v>
+        <v>499882</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.3413776919871463</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.3158454477589228</v>
+        <v>0.3134840920248636</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.3702087540918262</v>
+        <v>0.3678441773036413</v>
       </c>
     </row>
     <row r="32">
@@ -9235,19 +9235,19 @@
         <v>143784</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>123685</v>
+        <v>122570</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>164705</v>
+        <v>165557</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.2316462749599601</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.1992650018171695</v>
+        <v>0.1974684790741769</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.26535171864204</v>
+        <v>0.2667235674126312</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>174</v>
@@ -9256,19 +9256,19 @@
         <v>189866</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>166629</v>
+        <v>166414</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>214096</v>
+        <v>215853</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.25718539082964</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.2257104716446799</v>
+        <v>0.2254189621252441</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.2900066334335702</v>
+        <v>0.2923871144397437</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>316</v>
@@ -9277,19 +9277,19 @@
         <v>333650</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>303675</v>
+        <v>301560</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>365366</v>
+        <v>366371</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.2455202969784825</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.2234626109851756</v>
+        <v>0.2219064450960063</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.2688589471685183</v>
+        <v>0.269598483330964</v>
       </c>
     </row>
     <row r="33">
@@ -9394,19 +9394,19 @@
         <v>15000</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>8070</v>
+        <v>8806</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>26013</v>
+        <v>25617</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.01389379929237907</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.007474596008356351</v>
+        <v>0.008156211309301227</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.02409507955252238</v>
+        <v>0.02372799403766546</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>13</v>
@@ -9415,19 +9415,19 @@
         <v>15000</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>7253</v>
+        <v>8114</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>25919</v>
+        <v>26103</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.01099224113815553</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.005315339252049852</v>
+        <v>0.005945763584380412</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.01899388111006971</v>
+        <v>0.01912864407328095</v>
       </c>
     </row>
     <row r="35">
@@ -9444,19 +9444,19 @@
         <v>64554</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>51461</v>
+        <v>50300</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>79550</v>
+        <v>80109</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.2265236321362846</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.1805773768937364</v>
+        <v>0.1765049165728305</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.2791449125105277</v>
+        <v>0.2811035438702126</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>122</v>
@@ -9465,19 +9465,19 @@
         <v>125394</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>106188</v>
+        <v>104482</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>148561</v>
+        <v>148065</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.1161470147385803</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.09835723978529139</v>
+        <v>0.09677691455591887</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.1376063349431131</v>
+        <v>0.137146311935604</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>184</v>
@@ -9486,19 +9486,19 @@
         <v>189948</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>166371</v>
+        <v>166069</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>218228</v>
+        <v>216754</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.139197885670737</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.1219200547997491</v>
+        <v>0.1216990883298327</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.1599215784593986</v>
+        <v>0.1588417752143904</v>
       </c>
     </row>
     <row r="36">
@@ -9515,19 +9515,19 @@
         <v>126368</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>109407</v>
+        <v>109777</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>143739</v>
+        <v>143676</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.4434286290970166</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.3839120771381223</v>
+        <v>0.3852110635154288</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.5043827818110952</v>
+        <v>0.5041637395317019</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>301</v>
@@ -9536,19 +9536,19 @@
         <v>317907</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>288482</v>
+        <v>285463</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>349241</v>
+        <v>350267</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.2944642254155624</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.2672089854147147</v>
+        <v>0.264412806607009</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.3234876201419081</v>
+        <v>0.3244381227763747</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>419</v>
@@ -9557,19 +9557,19 @@
         <v>444275</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>412512</v>
+        <v>412671</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>481548</v>
+        <v>481886</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.3255737060619435</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.3022972853722349</v>
+        <v>0.302413700141148</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.3528882754218461</v>
+        <v>0.3531359151395825</v>
       </c>
     </row>
     <row r="37">
@@ -9586,19 +9586,19 @@
         <v>62815</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>50738</v>
+        <v>50104</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>77756</v>
+        <v>78685</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.220421391303705</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.1780422067561349</v>
+        <v>0.1758152159392432</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.2728497986185826</v>
+        <v>0.2761086376927531</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>275</v>
@@ -9607,19 +9607,19 @@
         <v>301031</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>271761</v>
+        <v>272735</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>333028</v>
+        <v>335025</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.278832436587835</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.2517210425847469</v>
+        <v>0.2526233988231174</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.3084704135591012</v>
+        <v>0.3103196057889278</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>335</v>
@@ -9628,19 +9628,19 @@
         <v>363846</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>332383</v>
+        <v>331267</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>397126</v>
+        <v>398623</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.2666339701227371</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.243576848321481</v>
+        <v>0.242759069198416</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.2910223096679024</v>
+        <v>0.2921188514313572</v>
       </c>
     </row>
     <row r="38">
@@ -9657,19 +9657,19 @@
         <v>31241</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>20914</v>
+        <v>21523</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>42229</v>
+        <v>42038</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.1096263474629938</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.07338833202477631</v>
+        <v>0.07552455081563908</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.1481814558632835</v>
+        <v>0.1475130700032281</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>279</v>
@@ -9678,19 +9678,19 @@
         <v>320280</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>288825</v>
+        <v>288381</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>356205</v>
+        <v>351614</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.2966625239656432</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.2675268252463185</v>
+        <v>0.2671154607151533</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.329937519149139</v>
+        <v>0.325685944260421</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>309</v>
@@ -9699,19 +9699,19 @@
         <v>351522</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>316613</v>
+        <v>320009</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>385310</v>
+        <v>387822</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.2576021970064268</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.2320207052243442</v>
+        <v>0.2345092239151492</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.2823631884390932</v>
+        <v>0.2842039766285396</v>
       </c>
     </row>
     <row r="39">
@@ -9803,19 +9803,19 @@
         <v>34330</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>23956</v>
+        <v>23304</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>48664</v>
+        <v>47095</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.01016160513882342</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.007091048509750415</v>
+        <v>0.006897898753279443</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.01440471607216647</v>
+        <v>0.01394015650080311</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>43</v>
@@ -9824,19 +9824,19 @@
         <v>45855</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>34029</v>
+        <v>34062</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>60881</v>
+        <v>60468</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0.01300293049207299</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.009649506386517894</v>
+        <v>0.009658845921912814</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.01726372705180687</v>
+        <v>0.01714665643649364</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>75</v>
@@ -9845,19 +9845,19 @@
         <v>80185</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>64596</v>
+        <v>63080</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>101673</v>
+        <v>100752</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.01161275324738368</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.009355164646727336</v>
+        <v>0.009135631936907846</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.01472476698041214</v>
+        <v>0.01459143356570331</v>
       </c>
     </row>
     <row r="41">
@@ -9874,19 +9874,19 @@
         <v>476584</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>438661</v>
+        <v>436656</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>520299</v>
+        <v>517050</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.1410697259349891</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.1298445618480807</v>
+        <v>0.1292509659242873</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.154009516428623</v>
+        <v>0.1530477571238694</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>377</v>
@@ -9895,19 +9895,19 @@
         <v>388978</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>352630</v>
+        <v>352782</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>427084</v>
+        <v>426084</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.1103006508473584</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.09999361173640983</v>
+        <v>0.1000367146449911</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.1211060174635153</v>
+        <v>0.120822507678776</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>819</v>
@@ -9916,19 +9916,19 @@
         <v>865562</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>811322</v>
+        <v>812565</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>920888</v>
+        <v>928782</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.1253550577557544</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.1174997028394491</v>
+        <v>0.1176798149339335</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.1333675578377316</v>
+        <v>0.13451094226669</v>
       </c>
     </row>
     <row r="42">
@@ -9945,19 +9945,19 @@
         <v>1203424</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>1153054</v>
+        <v>1146651</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>1268259</v>
+        <v>1263165</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.3562156439046826</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.3413062409396262</v>
+        <v>0.3394109902432783</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.3754069157823278</v>
+        <v>0.3738992271912508</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>1125</v>
@@ -9966,19 +9966,19 @@
         <v>1164453</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>1115386</v>
+        <v>1113713</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>1224615</v>
+        <v>1221472</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.33019809610347</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.316284633472788</v>
+        <v>0.3158101471415757</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.3472581709722532</v>
+        <v>0.3463669550541063</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>2256</v>
@@ -9987,19 +9987,19 @@
         <v>2367876</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>2288378</v>
+        <v>2284745</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>2448098</v>
+        <v>2451544</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.3429277199300749</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.3314144167158249</v>
+        <v>0.3308882100692243</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.3545458713366201</v>
+        <v>0.3550448640657936</v>
       </c>
     </row>
     <row r="43">
@@ -10016,19 +10016,19 @@
         <v>1036206</v>
       </c>
       <c r="E43" s="5" t="n">
-        <v>977701</v>
+        <v>986375</v>
       </c>
       <c r="F43" s="5" t="n">
-        <v>1083853</v>
+        <v>1088587</v>
       </c>
       <c r="G43" s="6" t="n">
         <v>0.3067188741766989</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>0.2894013476386118</v>
+        <v>0.2919689010168149</v>
       </c>
       <c r="I43" s="6" t="n">
-        <v>0.32082262402718</v>
+        <v>0.3222237343258288</v>
       </c>
       <c r="J43" s="5" t="n">
         <v>1040</v>
@@ -10037,19 +10037,19 @@
         <v>1104147</v>
       </c>
       <c r="L43" s="5" t="n">
-        <v>1046603</v>
+        <v>1051467</v>
       </c>
       <c r="M43" s="5" t="n">
-        <v>1161271</v>
+        <v>1154357</v>
       </c>
       <c r="N43" s="6" t="n">
         <v>0.3130974869370033</v>
       </c>
       <c r="O43" s="6" t="n">
-        <v>0.2967801323543371</v>
+        <v>0.2981593729712846</v>
       </c>
       <c r="P43" s="6" t="n">
-        <v>0.3292957917672585</v>
+        <v>0.3273355041170747</v>
       </c>
       <c r="Q43" s="5" t="n">
         <v>2048</v>
@@ -10058,19 +10058,19 @@
         <v>2140353</v>
       </c>
       <c r="S43" s="5" t="n">
-        <v>2060993</v>
+        <v>2061133</v>
       </c>
       <c r="T43" s="5" t="n">
-        <v>2225158</v>
+        <v>2217395</v>
       </c>
       <c r="U43" s="6" t="n">
         <v>0.3099766186063425</v>
       </c>
       <c r="V43" s="6" t="n">
-        <v>0.2984833881545272</v>
+        <v>0.2985036522793757</v>
       </c>
       <c r="W43" s="6" t="n">
-        <v>0.3222586039687856</v>
+        <v>0.3211342313499167</v>
       </c>
     </row>
     <row r="44">
@@ -10087,19 +10087,19 @@
         <v>627814</v>
       </c>
       <c r="E44" s="5" t="n">
-        <v>580096</v>
+        <v>583701</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>671302</v>
+        <v>677018</v>
       </c>
       <c r="G44" s="6" t="n">
         <v>0.1858341508448059</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.1717094233989094</v>
+        <v>0.1727764915461093</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.1987067057058121</v>
+        <v>0.2003984921808674</v>
       </c>
       <c r="J44" s="5" t="n">
         <v>737</v>
@@ -10108,19 +10108,19 @@
         <v>823094</v>
       </c>
       <c r="L44" s="5" t="n">
-        <v>770283</v>
+        <v>762412</v>
       </c>
       <c r="M44" s="5" t="n">
-        <v>867497</v>
+        <v>867782</v>
       </c>
       <c r="N44" s="6" t="n">
         <v>0.2334008356200954</v>
       </c>
       <c r="O44" s="6" t="n">
-        <v>0.2184255194806241</v>
+        <v>0.2161933230854124</v>
       </c>
       <c r="P44" s="6" t="n">
-        <v>0.245991822886679</v>
+        <v>0.2460727313133976</v>
       </c>
       <c r="Q44" s="5" t="n">
         <v>1341</v>
@@ -10129,19 +10129,19 @@
         <v>1450908</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>1382442</v>
+        <v>1384861</v>
       </c>
       <c r="T44" s="5" t="n">
-        <v>1520218</v>
+        <v>1534755</v>
       </c>
       <c r="U44" s="6" t="n">
         <v>0.2101278504604445</v>
       </c>
       <c r="V44" s="6" t="n">
-        <v>0.2002122541473304</v>
+        <v>0.2005625872427873</v>
       </c>
       <c r="W44" s="6" t="n">
-        <v>0.2201655786931399</v>
+        <v>0.2222709825955375</v>
       </c>
     </row>
     <row r="45">
